--- a/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Up_and_down/Binance_ETH-USDT_1d/equity_curve.xlsx
+++ b/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Up_and_down/Binance_ETH-USDT_1d/equity_curve.xlsx
@@ -400,7 +400,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -408,7 +408,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -416,7 +416,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -424,7 +424,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -640,379 +640,376 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35">
-        <v>1600</v>
+        <v>993.4171956131198</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.006582804386880192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
-        <v>1600</v>
+        <v>1011.093155671839</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
-        <v>1600</v>
+        <v>1013.461964917366</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38">
-        <v>1600</v>
+        <v>1004.595634196881</v>
       </c>
       <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008748557940412849</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
-        <v>1600</v>
+        <v>1026.930706682611</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
-        <v>1600</v>
+        <v>1006.220077599395</v>
       </c>
       <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.02016750394982303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
-        <v>1600</v>
+        <v>993.901891320009</v>
       </c>
       <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.0321626524045604</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
-        <v>1600</v>
+        <v>979.2148957950959</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>0.04646448935357694</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
-        <v>1600</v>
+        <v>989.2317820014397</v>
       </c>
       <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.03671029061245423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
-        <v>1600</v>
+        <v>988.7580831861088</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.03717156693056245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
-        <v>1600</v>
+        <v>968.385756370608</v>
       </c>
       <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>0.05700964040809187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
-        <v>1600</v>
+        <v>972.9205321753362</v>
       </c>
       <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.05259378666526504</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
-        <v>1600</v>
+        <v>907.0658702040055</v>
       </c>
       <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.1167214454671593</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
-        <v>1600</v>
+        <v>833.6308925794401</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.1882306302122423</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>1600</v>
+        <v>907.4042985392698</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.1163918922333705</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>1600</v>
+        <v>875.7291334839502</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.1472363930835231</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>1600</v>
+        <v>876.3382918806711</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.1466432095388527</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>1600</v>
+        <v>868.2163900369742</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.1545521188652997</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>1600</v>
+        <v>902.7341892207005</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>0.1209395304412644</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>1600</v>
+        <v>873.6986895399133</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>0.149213589724761</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>1600</v>
+        <v>873.360261204649</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>0.1495431429585499</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>1600</v>
+        <v>855.3568066684493</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.1670744665610526</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>1600</v>
+        <v>858.6732656797358</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.1638449799075665</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>1602.303620440094</v>
+        <v>863.4787085121461</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.1591655572346057</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>1616.155253519127</v>
+        <v>875.796831757758</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>0.1471704701606158</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>1688.94144219695</v>
+        <v>918.0980414161422</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>0.1059785870246701</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>1656.463135987282</v>
+        <v>899.3500949693807</v>
       </c>
       <c r="B61">
-        <v>0.01922997766424706</v>
+        <v>0.1242348786369102</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>1627.971523929149</v>
+        <v>882.9034485956618</v>
       </c>
       <c r="B62">
-        <v>0.03609948618970038</v>
+        <v>0.1402502205355355</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>1646.848726574093</v>
+        <v>893.800223260183</v>
       </c>
       <c r="B63">
-        <v>0.02492254294388296</v>
+        <v>0.1296392079388609</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>1604.873289143428</v>
+        <v>869.5701033780315</v>
       </c>
       <c r="B64">
-        <v>0.049775647013651</v>
+        <v>0.1532339059301443</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>1688.82427320233</v>
+        <v>918.030406176109</v>
       </c>
       <c r="B65">
-        <v>6.937421966979329E-05</v>
+        <v>0.1060444485668298</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>1687.065427912161</v>
+        <v>917.015121170316</v>
       </c>
       <c r="B66">
-        <v>0.001110763368059264</v>
+        <v>0.1070331082681963</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>1700.783700471506</v>
+        <v>924.9339281925895</v>
       </c>
       <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67" s="2">
-        <v>7</v>
+        <v>0.0993219677104713</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>1803.729165367544</v>
+        <v>984.3587039289961</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>0.04145557482757478</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>1787.900540534169</v>
+        <v>975.2217061808298</v>
       </c>
       <c r="B69">
-        <v>0.008775499746465409</v>
+        <v>0.05035295971314557</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>1763.512464029476</v>
+        <v>961.1438060188631</v>
       </c>
       <c r="B70">
-        <v>0.02229641905794255</v>
+        <v>0.0640616744982393</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>1728.5719709692</v>
+        <v>940.9745740247855</v>
       </c>
       <c r="B71">
-        <v>0.04166767153372986</v>
+        <v>0.08370197920704681</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>1811.81939507252</v>
+        <v>989.0287502137909</v>
       </c>
       <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72" s="2">
-        <v>4</v>
+        <v>0.03690799800042854</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>1782.976057635382</v>
+        <v>972.3790720524231</v>
       </c>
       <c r="B73">
-        <v>0.01591954336926804</v>
+        <v>0.05312104728702816</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>1831.751883052051</v>
+        <v>1000.534683275033</v>
       </c>
       <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74" s="2">
-        <v>2</v>
+        <v>0.02570380185908339</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>1797.04594637616</v>
+        <v>980.500847828571</v>
       </c>
       <c r="B75">
-        <v>0.01894685464609136</v>
+        <v>0.0452122607220764</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>2055.699504934013</v>
+        <v>1129.807373630811</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76" s="2">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>2064.610463589192</v>
+        <v>1134.951181764711</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1020,15 +1017,15 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>2038.932872958243</v>
+        <v>1120.128915759731</v>
       </c>
       <c r="B78">
-        <v>0.01243701467361047</v>
+        <v>0.01305982692747432</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>2105.061830509216</v>
+        <v>1158.301539256234</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1039,7 +1036,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>2155.361944831669</v>
+        <v>1187.337038937021</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1047,79 +1044,79 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>2069.183221108973</v>
+        <v>1137.590784105469</v>
       </c>
       <c r="B81">
-        <v>0.03998341157008167</v>
+        <v>0.04189733260244999</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>2070.121228251368</v>
+        <v>1138.132244228382</v>
       </c>
       <c r="B82">
-        <v>0.03954821452828361</v>
+        <v>0.04144130360212683</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>2100.840689170867</v>
+        <v>1155.86490566935</v>
       </c>
       <c r="B83">
-        <v>0.02529563806744306</v>
+        <v>0.02650648656243948</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>2084.19133538729</v>
+        <v>1146.254146072079</v>
       </c>
       <c r="B84">
-        <v>0.03302025890131322</v>
+        <v>0.03460086859727929</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>2022.517638768762</v>
+        <v>1110.653300574977</v>
       </c>
       <c r="B85">
-        <v>0.06163433774148863</v>
+        <v>0.0645846426476312</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>2019.351782765001</v>
+        <v>1108.825825384814</v>
       </c>
       <c r="B86">
-        <v>0.06310316575497044</v>
+        <v>0.06612378033999089</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>1993.674192134053</v>
+        <v>1094.003559379835</v>
       </c>
       <c r="B87">
-        <v>0.07501652011873317</v>
+        <v>0.07860740168667224</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>2081.728930141539</v>
+        <v>1144.832734457214</v>
       </c>
       <c r="B88">
-        <v>0.03416271446505548</v>
+        <v>0.03579801108357583</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>2107.758573744208</v>
+        <v>1159.858221351165</v>
       </c>
       <c r="B89">
-        <v>0.02208602188676922</v>
+        <v>0.02314323286878717</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>2172.949524152786</v>
+        <v>1197.489384724755</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1130,15 +1127,15 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>2150.437571130455</v>
+        <v>1184.494467842389</v>
       </c>
       <c r="B91">
-        <v>0.01036009017793826</v>
+        <v>0.01085180131709718</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>2279.060735855013</v>
+        <v>1258.74157261755</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1149,23 +1146,23 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>2223.953307628393</v>
+        <v>1226.931074048389</v>
       </c>
       <c r="B93">
-        <v>0.02417988575716734</v>
+        <v>0.02527166756160348</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>2266.280470438063</v>
+        <v>1251.364225718189</v>
       </c>
       <c r="B94">
-        <v>0.005607689701237928</v>
+        <v>0.005860890797480534</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>2323.029574960232</v>
+        <v>1284.12237405311</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1176,7 +1173,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>2337.685636266828</v>
+        <v>1292.582515130747</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1184,15 +1181,15 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>2328.540339622408</v>
+        <v>1287.30343651678</v>
       </c>
       <c r="B97">
-        <v>0.003912115685077322</v>
+        <v>0.004084132774635818</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>2502.890861149639</v>
+        <v>1387.946438631971</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -1203,7 +1200,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>2613.223214190215</v>
+        <v>1451.635260111649</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -1211,7 +1208,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>2732.114691309393</v>
+        <v>1520.264794903804</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1219,15 +1216,15 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>2728.831775508583</v>
+        <v>1518.369747507382</v>
       </c>
       <c r="B101">
-        <v>0.001201602484424469</v>
+        <v>0.001246524554652573</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>2792.61582440114</v>
+        <v>1555.188783730377</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1238,15 +1235,15 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>2726.955761223793</v>
+        <v>1517.286827261556</v>
       </c>
       <c r="B103">
-        <v>0.02351202861619095</v>
+        <v>0.02437128975294334</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>2888.760792113602</v>
+        <v>1610.68800509255</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -1257,7 +1254,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>3229.371823858231</v>
+        <v>1807.304089105684</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -1265,7 +1262,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>3259.622608799249</v>
+        <v>1824.76620958652</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -1273,7 +1270,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>3456.95419611758</v>
+        <v>1938.674921679307</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -1281,1280 +1278,1274 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>3219.288520071417</v>
+        <v>1801.483550368805</v>
       </c>
       <c r="B108">
-        <v>0.06875002171364586</v>
+        <v>0.07076553669537611</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>3148.586805000663</v>
+        <v>1760.671324531544</v>
       </c>
       <c r="B109">
-        <v>0.0892020471266981</v>
+        <v>0.0918171453899933</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>3254.111844137073</v>
+        <v>1821.585147122849</v>
       </c>
       <c r="B110">
-        <v>0.05867660966069921</v>
+        <v>0.06039680672973957</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>3427.172523945332</v>
+        <v>1921.483594293702</v>
       </c>
       <c r="B111">
-        <v>0.008615003405510913</v>
+        <v>0.008867565775655173</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>3143.896769288689</v>
+        <v>1757.964023916978</v>
       </c>
       <c r="B112">
-        <v>0.09055874306361311</v>
+        <v>0.09321361500142278</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>3126.426249764621</v>
+        <v>1747.879250335503</v>
       </c>
       <c r="B113">
-        <v>0.09561247491336922</v>
+        <v>0.09841550494630302</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>3223.861059196055</v>
+        <v>1804.123026642013</v>
       </c>
       <c r="B114">
-        <v>0.06742731424769999</v>
+        <v>0.06940405198038191</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>3180.478829446942</v>
+        <v>1779.080842643041</v>
       </c>
       <c r="B115">
-        <v>0.07997657793127289</v>
+        <v>0.0823212170599612</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>3331.848503578216</v>
+        <v>1866.458260848183</v>
       </c>
       <c r="B116">
-        <v>0.03618957193007277</v>
+        <v>0.03725052613182234</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>3226.792358815432</v>
+        <v>1805.815105284561</v>
       </c>
       <c r="B117">
-        <v>0.06657937139017855</v>
+        <v>0.06853125034477736</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>3005.77625494799</v>
+        <v>1678.234619638879</v>
       </c>
       <c r="B118">
-        <v>0.1305131383216753</v>
+        <v>0.1343393361765008</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>2739.149635679782</v>
+        <v>1547.487971145079</v>
       </c>
       <c r="B119">
-        <v>0.2076407495488216</v>
+        <v>0.2017805802095881</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>2784.408098108828</v>
+        <v>1547.487971145079</v>
       </c>
       <c r="B120">
-        <v>0.1945487443148861</v>
+        <v>0.2017805802095881</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>2772.331501845032</v>
+        <v>1547.487971145079</v>
       </c>
       <c r="B121">
-        <v>0.198042165279896</v>
+        <v>0.2017805802095881</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>2660.357690904051</v>
+        <v>1547.487971145079</v>
       </c>
       <c r="B122">
-        <v>0.2304330517622035</v>
+        <v>0.2017805802095881</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>2667.39263527444</v>
+        <v>1547.487971145079</v>
       </c>
       <c r="B123">
-        <v>0.2283980394446293</v>
+        <v>0.2017805802095881</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>2833.418807502598</v>
+        <v>1547.487971145079</v>
       </c>
       <c r="B124">
-        <v>0.1803713191558221</v>
+        <v>0.2017805802095881</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>2738.915297690541</v>
+        <v>1547.487971145079</v>
       </c>
       <c r="B125">
-        <v>0.20770853696397</v>
+        <v>0.2017805802095881</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>2743.018942441553</v>
+        <v>1547.487971145079</v>
       </c>
       <c r="B126">
-        <v>0.2065214675039172</v>
+        <v>0.2017805802095881</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>2791.325982682169</v>
+        <v>1547.487971145079</v>
       </c>
       <c r="B127">
-        <v>0.1925475941170879</v>
+        <v>0.2017805802095881</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>2984.788481633872</v>
+        <v>1547.487971145079</v>
       </c>
       <c r="B128">
-        <v>0.1365843131546221</v>
+        <v>0.2017805802095881</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>2895.092067330837</v>
+        <v>1547.487971145079</v>
       </c>
       <c r="B129">
-        <v>0.1625309729060791</v>
+        <v>0.2017805802095881</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>2451.887077674031</v>
+        <v>1468.123292615764</v>
       </c>
       <c r="B130">
-        <v>0.2907377597227973</v>
+        <v>0.2427181699219304</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>2491.517715643853</v>
+        <v>1483.069891141631</v>
       </c>
       <c r="B131">
-        <v>0.2792737264375631</v>
+        <v>0.2350084717364708</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>2466.777913760156</v>
+        <v>1473.430335925795</v>
       </c>
       <c r="B132">
-        <v>0.2864302580200417</v>
+        <v>0.2399807108200019</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>2395.372747931391</v>
+        <v>1445.608203722067</v>
       </c>
       <c r="B133">
-        <v>0.3070857720297321</v>
+        <v>0.2543318183175024</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>2052.716139775381</v>
+        <v>1049.108058534466</v>
       </c>
       <c r="B134">
-        <v>0.4062067290099662</v>
+        <v>0.4588530305917848</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>2052.716139775381</v>
+        <v>1168.98551784353</v>
       </c>
       <c r="B135">
-        <v>0.4062067290099662</v>
+        <v>0.3970182908071364</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>2009.685839633967</v>
+        <v>1116.356380026691</v>
       </c>
       <c r="B136">
-        <v>0.4186541893175802</v>
+        <v>0.4241652545545452</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>2014.264292109336</v>
+        <v>1122.021320614867</v>
       </c>
       <c r="B137">
-        <v>0.4173297712849344</v>
+        <v>0.4212431862259008</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>1915.468155735412</v>
+        <v>1063.727242209852</v>
       </c>
       <c r="B138">
-        <v>0.4459087256965606</v>
+        <v>0.4513122183019541</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>1951.232704448753</v>
+        <v>1084.970769415513</v>
       </c>
       <c r="B139">
-        <v>0.4355630437220908</v>
+        <v>0.4403544620695377</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>1979.946325199943</v>
+        <v>1096.117951747864</v>
       </c>
       <c r="B140">
-        <v>0.427256997670501</v>
+        <v>0.4346045644421954</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>2273.432592303616</v>
+        <v>1179.218950671047</v>
       </c>
       <c r="B141">
-        <v>0.3423596428159643</v>
+        <v>0.3917397200095871</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>2227.856477041853</v>
+        <v>1166.335746393442</v>
       </c>
       <c r="B142">
-        <v>0.3555435361151433</v>
+        <v>0.398385085941512</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>2214.604007906405</v>
+        <v>1162.589611689463</v>
       </c>
       <c r="B143">
-        <v>0.3593771041590392</v>
+        <v>0.4003174030422738</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>2047.492036832621</v>
+        <v>1115.351323647328</v>
       </c>
       <c r="B144">
-        <v>0.4077179156344887</v>
+        <v>0.4246836789526348</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>2267.291174798397</v>
+        <v>1177.482928725794</v>
       </c>
       <c r="B145">
-        <v>0.3441361828442114</v>
+        <v>0.3926351883141698</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>2307.695356162389</v>
+        <v>1197.62300599673</v>
       </c>
       <c r="B146">
-        <v>0.3324483851263911</v>
+        <v>0.3822466094731691</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>2270.200378208545</v>
+        <v>1178.575194349784</v>
       </c>
       <c r="B147">
-        <v>0.3432946318009792</v>
+        <v>0.3920717799718137</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>2307.372044442346</v>
+        <v>1197.458760514196</v>
       </c>
       <c r="B148">
-        <v>0.3325419101492006</v>
+        <v>0.3823313299596712</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>2193.109046638136</v>
+        <v>1139.412051883798</v>
       </c>
       <c r="B149">
-        <v>0.3655949942579041</v>
+        <v>0.4122727646897997</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>2187.452295677861</v>
+        <v>1136.538367654469</v>
       </c>
       <c r="B150">
-        <v>0.3672313338329637</v>
+        <v>0.413755057671049</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>2082.724585333963</v>
+        <v>1083.335677328791</v>
       </c>
       <c r="B151">
-        <v>0.3975261264170004</v>
+        <v>0.4411978691144407</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>2204.90691406851</v>
+        <v>1145.405482708748</v>
       </c>
       <c r="B152">
-        <v>0.3621822017356242</v>
+        <v>0.409181255763817</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>2215.573792548974</v>
+        <v>1150.824360202339</v>
       </c>
       <c r="B153">
-        <v>0.359096572631124</v>
+        <v>0.4063861107743227</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>2263.573993123261</v>
+        <v>1175.208926601607</v>
       </c>
       <c r="B154">
-        <v>0.3452114593634406</v>
+        <v>0.3938081555294349</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>2353.917793829118</v>
+        <v>1221.104451635193</v>
       </c>
       <c r="B155">
-        <v>0.3190775288626199</v>
+        <v>0.3701344985793412</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>2354.402610891623</v>
+        <v>1221.350743394617</v>
       </c>
       <c r="B156">
-        <v>0.3189372848689189</v>
+        <v>0.3700074572911553</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>2399.493909090882</v>
+        <v>1244.257559237342</v>
       </c>
       <c r="B157">
-        <v>0.3058936355634408</v>
+        <v>0.358191749775383</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>2376.544195599978</v>
+        <v>1232.598882695001</v>
       </c>
       <c r="B158">
-        <v>0.3125323447244351</v>
+        <v>0.3642054844206132</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>2839.415496742477</v>
+        <v>1467.741982973453</v>
       </c>
       <c r="B159">
-        <v>0.1786366449600766</v>
+        <v>0.2429148556261951</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>2731.293615408366</v>
+        <v>1412.815020938676</v>
       </c>
       <c r="B160">
-        <v>0.2099132761215597</v>
+        <v>0.2712470744115903</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>2868.344670843457</v>
+        <v>1482.438283370149</v>
       </c>
       <c r="B161">
-        <v>0.1702682453632668</v>
+        <v>0.2353342652794826</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>2810.324365746354</v>
+        <v>1452.963406906735</v>
       </c>
       <c r="B162">
-        <v>0.1870518941493179</v>
+        <v>0.2505378850992932</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>2621.070809964215</v>
+        <v>1356.820769124936</v>
       </c>
       <c r="B163">
-        <v>0.2417976457692511</v>
+        <v>0.3001298185929803</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>2629.474807439497</v>
+        <v>1361.090081169542</v>
       </c>
       <c r="B164">
-        <v>0.2393666047433909</v>
+        <v>0.2979276381258664</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>2633.676956694698</v>
+        <v>1363.224813656222</v>
       </c>
       <c r="B165">
-        <v>0.2381510406899474</v>
+        <v>0.2968265084507422</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>2596.504838908216</v>
+        <v>1344.341018098678</v>
       </c>
       <c r="B166">
-        <v>0.2489038929632662</v>
+        <v>0.3065670767875865</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>2631.414075689515</v>
+        <v>1362.075248207238</v>
       </c>
       <c r="B167">
-        <v>0.2388056287685874</v>
+        <v>0.2974194729731227</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>2538.969200356056</v>
+        <v>1315.112356930312</v>
       </c>
       <c r="B168">
-        <v>0.26554734129613</v>
+        <v>0.3216436947607784</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>2855.092201708009</v>
+        <v>1475.705900802549</v>
       </c>
       <c r="B169">
-        <v>0.1741018134071628</v>
+        <v>0.2388069375115904</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>2829.233585842078</v>
+        <v>1462.569473703664</v>
       </c>
       <c r="B170">
-        <v>0.1815819865303624</v>
+        <v>0.2455829198859362</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>3099.295504352202</v>
+        <v>1599.76354174995</v>
       </c>
       <c r="B171">
-        <v>0.1034606394747883</v>
+        <v>0.1748159921704597</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>2980.183733852705</v>
+        <v>1539.253609667804</v>
       </c>
       <c r="B172">
-        <v>0.1379163376825543</v>
+        <v>0.2060279975487167</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>2821.314254911741</v>
+        <v>1458.546376954105</v>
       </c>
       <c r="B173">
-        <v>0.1838728271030351</v>
+        <v>0.2476580985064314</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>2830.041564107065</v>
+        <v>1462.979934481245</v>
       </c>
       <c r="B174">
-        <v>0.1813482610543654</v>
+        <v>0.2453711975528154</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>3023.335312249264</v>
+        <v>1561.175029079702</v>
       </c>
       <c r="B175">
-        <v>0.12543379497342</v>
+        <v>0.1947205735103901</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>3068.749771651005</v>
+        <v>1584.246013940584</v>
       </c>
       <c r="B176">
-        <v>0.1122966641856458</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>0.1828201849496829</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177">
-        <v>3102.366062587252</v>
+        <v>1601.323415047761</v>
       </c>
       <c r="B177">
-        <v>0.1025724130011781</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>0.174011384198093</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178">
-        <v>3209.356653936332</v>
+        <v>1655.675670822423</v>
       </c>
       <c r="B178">
-        <v>0.07162303233850154</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>0.1459756082323209</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179">
-        <v>3260.58921912325</v>
+        <v>1681.702309725147</v>
       </c>
       <c r="B179">
-        <v>0.05680288654528975</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>0.132550645330248</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180">
-        <v>3243.780923137566</v>
+        <v>1673.163532707181</v>
       </c>
       <c r="B180">
-        <v>0.06166505567803704</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>0.1369550851476102</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181">
-        <v>3242.164966607591</v>
+        <v>1672.342611152019</v>
       </c>
       <c r="B181">
-        <v>0.062132506630031</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>0.1373785298138518</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182">
-        <v>3551.176615294194</v>
+        <v>1829.323519052278</v>
       </c>
       <c r="B182">
-        <v>0</v>
-      </c>
-      <c r="C182" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>0.05640522885203825</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183">
-        <v>3401.196101408576</v>
+        <v>1753.131966606986</v>
       </c>
       <c r="B183">
-        <v>0.04223403399303816</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>0.095706068612886</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184">
-        <v>3497.196502557149</v>
+        <v>1801.901099405523</v>
       </c>
       <c r="B184">
-        <v>0.01520062744966366</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>0.07055015812311027</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185">
-        <v>3527.580278363203</v>
+        <v>1817.336351544868</v>
       </c>
       <c r="B185">
-        <v>0.006644653163508041</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>0.0625884044702727</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186">
-        <v>3462.28726577585</v>
+        <v>1784.166869296964</v>
       </c>
       <c r="B186">
-        <v>0.02503095710179981</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>0.07969776193757416</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187">
-        <v>3407.660529598718</v>
+        <v>1756.415958685141</v>
       </c>
       <c r="B187">
-        <v>0.04041367164825904</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>0.09401213218165039</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188">
-        <v>3388.428298818072</v>
+        <v>1746.645799334433</v>
       </c>
       <c r="B188">
-        <v>0.0458294064494561</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>0.09905173899837505</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189">
-        <v>3286.28648016428</v>
+        <v>1694.75676701152</v>
       </c>
       <c r="B189">
-        <v>0.07459221655974135</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>0.1258169443160188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190">
-        <v>3496.873190837106</v>
+        <v>1801.736853922989</v>
       </c>
       <c r="B190">
-        <v>0.01529167099806139</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>0.07063487860961237</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191">
-        <v>3485.721645811697</v>
+        <v>1796.071761134353</v>
       </c>
       <c r="B191">
-        <v>0.01843191048301995</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>0.07355702544572529</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192">
-        <v>3465.681436766064</v>
+        <v>1785.891141006064</v>
       </c>
       <c r="B192">
-        <v>0.02407516938468213</v>
+        <v>0.07880835459557078</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>3101.558084322264</v>
+        <v>1539.033495349047</v>
       </c>
       <c r="B193">
-        <v>0.1266111432012461</v>
+        <v>0.2061415360880021</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>3072.30529746612</v>
+        <v>1526.49956027901</v>
       </c>
       <c r="B194">
-        <v>0.1348486346090682</v>
+        <v>0.2126067432920963</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>3137.436955228573</v>
+        <v>1554.406507176516</v>
       </c>
       <c r="B195">
-        <v>0.1165077676744459</v>
+        <v>0.1982118869985341</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>3296.145079344636</v>
+        <v>1622.408141774295</v>
       </c>
       <c r="B196">
-        <v>0.07181606649784444</v>
+        <v>0.163135539831019</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>3356.104652691757</v>
+        <v>1648.09900681412</v>
       </c>
       <c r="B197">
-        <v>0.05493164202599821</v>
+        <v>0.1498837745388928</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>3219.861876556774</v>
+        <v>1589.723094863055</v>
       </c>
       <c r="B198">
-        <v>0.09329717291742523</v>
+        <v>0.1799950176866089</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>3310.205526745071</v>
+        <v>1628.432618540881</v>
       </c>
       <c r="B199">
-        <v>0.06785668938889411</v>
+        <v>0.1600280169042935</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>3416.064828109121</v>
+        <v>1673.790129822848</v>
       </c>
       <c r="B200">
-        <v>0.03804704801309344</v>
+        <v>0.1366318761822183</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>3543.903907803943</v>
+        <v>1728.565311831591</v>
       </c>
       <c r="B201">
-        <v>0.002047971215773492</v>
+        <v>0.1083779479984791</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>3538.570468563711</v>
+        <v>1726.280094308016</v>
       </c>
       <c r="B202">
-        <v>0.003549850682219136</v>
+        <v>0.1095567002988366</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>3464.226534025868</v>
+        <v>1694.425965232012</v>
       </c>
       <c r="B203">
-        <v>0.02448486535247196</v>
+        <v>0.1259875772446278</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>3282.569298489144</v>
+        <v>1616.591329974292</v>
       </c>
       <c r="B204">
-        <v>0.0756389630547275</v>
+        <v>0.166135945796432</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>3421.882933894297</v>
+        <v>1676.283012313006</v>
       </c>
       <c r="B205">
-        <v>0.03640868799458052</v>
+        <v>0.1353460069205482</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>3409.600098883858</v>
+        <v>1671.020188731311</v>
       </c>
       <c r="B206">
-        <v>0.03986749512840182</v>
+        <v>0.1380606567686706</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>3301.316561689725</v>
+        <v>1624.623965663073</v>
       </c>
       <c r="B207">
-        <v>0.07035979357612698</v>
+        <v>0.1619925818941312</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>3370.003745267292</v>
+        <v>1654.054347914813</v>
       </c>
       <c r="B208">
-        <v>0.05101770192071742</v>
+        <v>0.1468119129110887</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>3317.316879410421</v>
+        <v>1631.479618233798</v>
       </c>
       <c r="B209">
-        <v>0.06585415517679016</v>
+        <v>0.1584563249930588</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>3436.913316454863</v>
+        <v>1682.723076981662</v>
       </c>
       <c r="B210">
-        <v>0.03217618024043689</v>
+        <v>0.1320241170066493</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>3629.561043227216</v>
+        <v>1765.266805571673</v>
       </c>
       <c r="B211">
-        <v>0</v>
-      </c>
-      <c r="C211" s="2">
-        <v>29</v>
+        <v>0.08944672165946488</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>3636.995105542367</v>
+        <v>1768.452076596377</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>0.08780370715038721</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>4008.552821336438</v>
+        <v>1927.653328341601</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>0.005685116784901023</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>3813.15784804908</v>
+        <v>1843.932487649081</v>
       </c>
       <c r="B214">
-        <v>0.04874451753443887</v>
+        <v>0.04886968566558791</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>4082.411487259095</v>
+        <v>1959.299534482119</v>
       </c>
       <c r="B215">
         <v>0</v>
       </c>
       <c r="C215" s="2">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>3912.390764327844</v>
+        <v>1886.450793189166</v>
       </c>
       <c r="B216">
-        <v>0.04164713024688305</v>
+        <v>0.03718101291347919</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>4022.451913911973</v>
+        <v>1933.608669442294</v>
       </c>
       <c r="B217">
-        <v>0.01468729292337401</v>
+        <v>0.01311227027194495</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>4001.280113846188</v>
+        <v>1924.537192982791</v>
       </c>
       <c r="B218">
-        <v>0.01987339435676982</v>
+        <v>0.01774222924445135</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>3949.885591764127</v>
+        <v>1902.516193551181</v>
       </c>
       <c r="B219">
-        <v>0.0324626500558729</v>
+        <v>0.02898144971281669</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>3980.754636185368</v>
+        <v>1915.742646140216</v>
       </c>
       <c r="B220">
-        <v>0.02490117701044847</v>
+        <v>0.02223084708353007</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>4023.098236316939</v>
+        <v>1933.885599059222</v>
       </c>
       <c r="B221">
-        <v>0.01452897414365695</v>
+        <v>0.01297092913851716</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>4052.835689718028</v>
+        <v>1946.627199095843</v>
       </c>
       <c r="B222">
-        <v>0.007244688006922129</v>
+        <v>0.006467788698590105</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>4010.8154013065</v>
+        <v>1928.622775477526</v>
       </c>
       <c r="B223">
-        <v>0.01753769461408805</v>
+        <v>0.01565700316092877</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>4075.138779768844</v>
+        <v>1956.183399123309</v>
       </c>
       <c r="B224">
-        <v>0.001781473404370959</v>
+        <v>0.001590433368644728</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225">
-        <v>3796.026240343353</v>
+        <v>1836.592111510394</v>
       </c>
       <c r="B225">
-        <v>0.07015099967495431</v>
+        <v>0.06262821013947695</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>3909.804872637739</v>
+        <v>1885.342816752551</v>
       </c>
       <c r="B226">
-        <v>0.04228055284481946</v>
+        <v>0.03774650911103117</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227">
-        <v>3918.855192517986</v>
+        <v>1889.220605296252</v>
       </c>
       <c r="B227">
-        <v>0.04006364749157598</v>
+        <v>0.03576733825151979</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>3816.390062144151</v>
+        <v>1845.317393702624</v>
       </c>
       <c r="B228">
-        <v>0.06516281515108835</v>
+        <v>0.05817494404173529</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>3801.682991303628</v>
+        <v>1839.015858334658</v>
       </c>
       <c r="B229">
-        <v>0.06876536008964307</v>
+        <v>0.06139116252036181</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
-        <v>3873.441034151366</v>
+        <v>1869.762010974047</v>
       </c>
       <c r="B230">
-        <v>0.05118799360620807</v>
+        <v>0.04569874178617528</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>3849.521686535453</v>
+        <v>1859.513293427584</v>
       </c>
       <c r="B231">
-        <v>0.05704711576735311</v>
+        <v>0.05092954869757083</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232">
-        <v>3808.309376388913</v>
+        <v>1841.855064076541</v>
       </c>
       <c r="B232">
-        <v>0.06714220546498917</v>
+        <v>0.05994207028514476</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233">
-        <v>3771.622226182496</v>
+        <v>1826.135728997348</v>
       </c>
       <c r="B233">
-        <v>0.07612884248600349</v>
+        <v>0.06796500644296299</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234">
-        <v>3769.844312757378</v>
+        <v>1814.129327974685</v>
       </c>
       <c r="B234">
-        <v>0.07656434817441005</v>
+        <v>0.07409291124330575</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235">
-        <v>3756.106876041865</v>
+        <v>1812.355804044225</v>
       </c>
       <c r="B235">
-        <v>0.0799293780736221</v>
+        <v>0.07499809388600409</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236">
-        <v>3999.987168001135</v>
+        <v>1843.84111989423</v>
       </c>
       <c r="B236">
-        <v>0.02019010565573798</v>
+        <v>0.05892841423984085</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237">
-        <v>4000.148522826036</v>
+        <v>1843.861951047026</v>
       </c>
       <c r="B237">
-        <v>0.02015058126545932</v>
+        <v>0.05891778230101263</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238">
-        <v>3861.804521545892</v>
+        <v>1808.059733834096</v>
       </c>
       <c r="B238">
-        <v>0.05403839529692211</v>
+        <v>0.07719075005445686</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239">
-        <v>3828.188230609646</v>
+        <v>1794.622499127886</v>
       </c>
       <c r="B239">
-        <v>0.06227281533056161</v>
+        <v>0.08404893302736405</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240">
-        <v>3781.965792942917</v>
+        <v>1776.797844511471</v>
       </c>
       <c r="B240">
-        <v>0.07359515209425771</v>
+        <v>0.09314639582093676</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241">
-        <v>3641.35891065759</v>
+        <v>1722.575928923688</v>
       </c>
       <c r="B241">
-        <v>0.1080372662035656</v>
+        <v>0.1208205286594947</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242">
-        <v>3705.843944979956</v>
+        <v>1747.443147589466</v>
       </c>
       <c r="B242">
-        <v>0.09224144686403568</v>
+        <v>0.1081286363642456</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243">
-        <v>3754.328962616747</v>
+        <v>1766.140315827927</v>
       </c>
       <c r="B243">
-        <v>0.08036488376202866</v>
+        <v>0.09858585441110079</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244">
-        <v>3716.672479320442</v>
+        <v>1751.618930918178</v>
       </c>
       <c r="B244">
-        <v>0.08958896208285161</v>
+        <v>0.1059973729942394</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245">
-        <v>3803.783915413668</v>
+        <v>1785.211517979405</v>
       </c>
       <c r="B245">
-        <v>0.06825073188114494</v>
+        <v>0.08885217060429162</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246">
-        <v>3730.571571895977</v>
+        <v>1756.978806708953</v>
       </c>
       <c r="B246">
-        <v>0.08618433405382675</v>
+        <v>0.1032617648360965</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247">
-        <v>3704.874310854947</v>
+        <v>1747.069229763946</v>
       </c>
       <c r="B247">
-        <v>0.09247896190337834</v>
+        <v>0.108319478968421</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248">
-        <v>3774.369773732623</v>
+        <v>1773.868608717821</v>
       </c>
       <c r="B248">
-        <v>0.07545582175825427</v>
+        <v>0.09464143817770654</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249">
-        <v>3748.349200971549</v>
+        <v>1763.834353801808</v>
       </c>
       <c r="B249">
-        <v>0.08182964586743136</v>
+        <v>0.09976278626125246</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250">
-        <v>3975.259842120235</v>
+        <v>1851.337393698296</v>
       </c>
       <c r="B250">
-        <v>0.02624714472641287</v>
+        <v>0.05510241741182231</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251">
-        <v>3939.542326038827</v>
+        <v>1837.563728352091</v>
       </c>
       <c r="B251">
-        <v>0.03499626670808453</v>
+        <v>0.06213231003609931</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252">
-        <v>4061.724654773374</v>
+        <v>1884.680624817512</v>
       </c>
       <c r="B252">
-        <v>0.005067307043957414</v>
+        <v>0.03808448292431743</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253">
-        <v>3981.400958590334</v>
+        <v>1853.705578622422</v>
       </c>
       <c r="B253">
-        <v>0.02474285823073141</v>
+        <v>0.05389372783554902</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254">
-        <v>3969.76444598486</v>
+        <v>1849.218216453693</v>
       </c>
       <c r="B254">
-        <v>0.02759325992144535</v>
+        <v>0.05618401683411978</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255">
-        <v>3936.309810908635</v>
+        <v>1836.317180817029</v>
       </c>
       <c r="B255">
-        <v>0.03578808182527216</v>
+        <v>0.06276853104933577</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256">
-        <v>3994.492072900881</v>
+        <v>1858.75387557318</v>
       </c>
       <c r="B256">
-        <v>0.02153614711123653</v>
+        <v>0.05131714530597076</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>3941.319938428824</v>
+        <v>1838.249225017629</v>
       </c>
       <c r="B257">
-        <v>0.03456083475921212</v>
+        <v>0.06178244180335946</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>3956.511976849412</v>
+        <v>1844.107696604929</v>
       </c>
       <c r="B258">
-        <v>0.030839495431219</v>
+        <v>0.05879235708981978</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>3926.936179308345</v>
+        <v>1832.702448357842</v>
       </c>
       <c r="B259">
-        <v>0.03808418343814113</v>
+        <v>0.06461344163884541</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>3845.481193140274</v>
+        <v>1801.291145351729</v>
       </c>
       <c r="B260">
-        <v>0.05803684779407048</v>
+        <v>0.08064534612986307</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>3830.935477124652</v>
+        <v>1795.681913618944</v>
       </c>
       <c r="B261">
-        <v>0.06159986834234654</v>
+        <v>0.08350822219044884</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>3879.420795796563</v>
+        <v>1814.379197944901</v>
       </c>
       <c r="B262">
-        <v>0.04972323150080549</v>
+        <v>0.07396538098781491</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>3935.016865063583</v>
+        <v>1835.818585020504</v>
       </c>
       <c r="B263">
-        <v>0.03610479312424042</v>
+        <v>0.06302300760473245</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>3884.915589861696</v>
+        <v>1816.498143014512</v>
       </c>
       <c r="B264">
-        <v>0.0483772637848412</v>
+        <v>0.07288390006449552</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>4039.744876442601</v>
+        <v>1876.204612364075</v>
       </c>
       <c r="B265">
-        <v>0.01045132538688298</v>
+        <v>0.04241052511657328</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>4333.079519128551</v>
+        <v>1989.322590489886</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -2565,7 +2556,7 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>4519.908839080606</v>
+        <v>2061.369160694084</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -2573,7 +2564,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>4582.131293432911</v>
+        <v>2085.363865737817</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -2581,7 +2572,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>5004.113596148913</v>
+        <v>2248.091951486669</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -2589,7 +2580,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>5096.881482167293</v>
+        <v>2283.865822603009</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -2597,7 +2588,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271">
-        <v>5273.528590183829</v>
+        <v>2351.985849333009</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -2605,23 +2596,23 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>5190.13463680086</v>
+        <v>2319.826826763353</v>
       </c>
       <c r="B272">
-        <v>0.01581369133718147</v>
+        <v>0.01367313607723264</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>5205.326675221448</v>
+        <v>2325.685298350654</v>
       </c>
       <c r="B273">
-        <v>0.01293288047955832</v>
+        <v>0.01118227432780439</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274">
-        <v>5482.661301221822</v>
+        <v>2432.633226049146</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -2632,7 +2623,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>5667.874363608782</v>
+        <v>2504.056522485814</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -2640,7 +2631,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>6325.170702878509</v>
+        <v>2757.528230589828</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -2648,23 +2639,23 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277">
-        <v>6089.533655639862</v>
+        <v>2666.660046351156</v>
       </c>
       <c r="B277">
-        <v>0.03725386369911132</v>
+        <v>0.03295276662289537</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>6308.039396207903</v>
+        <v>2750.921923351488</v>
       </c>
       <c r="B278">
-        <v>0.002708433886663308</v>
+        <v>0.00239573512432445</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>6367.352346114938</v>
+        <v>2773.794642743668</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -2675,7 +2666,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280">
-        <v>6546.909560646985</v>
+        <v>2843.036887300214</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -2683,63 +2674,63 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>6450.746901568149</v>
+        <v>2805.953897488317</v>
       </c>
       <c r="B281">
-        <v>0.01468825224910142</v>
+        <v>0.01304344307931637</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>6201.371815543745</v>
+        <v>2709.78794426938</v>
       </c>
       <c r="B282">
-        <v>0.05277875643498164</v>
+        <v>0.04686852415670528</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283">
-        <v>6487.272696949665</v>
+        <v>2820.039257762036</v>
       </c>
       <c r="B283">
-        <v>0.009109162597234155</v>
+        <v>0.008089106983067418</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>6375.918601520483</v>
+        <v>2777.098028537831</v>
       </c>
       <c r="B284">
-        <v>0.02611781292265236</v>
+        <v>0.02319310701065147</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>6461.575736943756</v>
+        <v>2810.129796904525</v>
       </c>
       <c r="B285">
-        <v>0.01303421452713582</v>
+        <v>0.01157462660533326</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286">
-        <v>6195.877322513734</v>
+        <v>2707.669115287265</v>
       </c>
       <c r="B286">
-        <v>0.05361800630992097</v>
+        <v>0.047613793763153</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>6328.079906288658</v>
+        <v>2758.650100153885</v>
       </c>
       <c r="B287">
-        <v>0.03342487815528983</v>
+        <v>0.02968191778421303</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>6931.881100401406</v>
+        <v>2991.492595818839</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -2750,7 +2741,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289">
-        <v>7151.194819234436</v>
+        <v>3076.066051659188</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -2758,797 +2749,797 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290">
-        <v>7057.619255986188</v>
+        <v>3039.980717790327</v>
       </c>
       <c r="B290">
-        <v>0.01308530470971914</v>
+        <v>0.01173100098074853</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291">
-        <v>7078.629099156831</v>
+        <v>3048.082696330747</v>
       </c>
       <c r="B291">
-        <v>0.01014735605893802</v>
+        <v>0.009097124332992368</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292">
-        <v>7034.508187670384</v>
+        <v>3031.068448525867</v>
       </c>
       <c r="B292">
-        <v>0.01631708190220216</v>
+        <v>0.01462829548443856</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293">
-        <v>6890.022166814779</v>
+        <v>2975.350629461012</v>
       </c>
       <c r="B293">
-        <v>0.03652154066858682</v>
+        <v>0.03274163184625112</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294">
-        <v>6655.839119210963</v>
+        <v>2885.043147829375</v>
       </c>
       <c r="B294">
-        <v>0.06926894212015089</v>
+        <v>0.06209974058482193</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295">
-        <v>6792.890174646054</v>
+        <v>2937.89383791109</v>
       </c>
       <c r="B295">
-        <v>0.05010416491865899</v>
+        <v>0.04491848075679949</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296">
-        <v>6340.847407844041</v>
+        <v>2733.954595753383</v>
       </c>
       <c r="B296">
-        <v>0.1133163662680282</v>
+        <v>0.1112172008534326</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297">
-        <v>6458.343221813564</v>
+        <v>2751.437123861264</v>
       </c>
       <c r="B297">
-        <v>0.09688613091022524</v>
+        <v>0.1055337962014252</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298">
-        <v>6385.130276225631</v>
+        <v>2740.266982030224</v>
       </c>
       <c r="B298">
-        <v>0.107123992895332</v>
+        <v>0.1091651037362603</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299">
-        <v>6659.394343990956</v>
+        <v>2782.111610893261</v>
       </c>
       <c r="B299">
-        <v>0.06877179096291619</v>
+        <v>0.09556181038679978</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300">
-        <v>6259.392722711091</v>
+        <v>2721.083130117606</v>
       </c>
       <c r="B300">
-        <v>0.1247067265073917</v>
+        <v>0.1154015926771497</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301">
-        <v>6305.938171062742</v>
+        <v>2728.184596333753</v>
       </c>
       <c r="B301">
-        <v>0.1181979612551211</v>
+        <v>0.1130929731296869</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302">
-        <v>6264.887215741102</v>
+        <v>2721.921428125452</v>
       </c>
       <c r="B302">
-        <v>0.1239383943378872</v>
+        <v>0.1151290699179607</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303">
-        <v>6456.241996668403</v>
+        <v>2751.116538714718</v>
       </c>
       <c r="B303">
-        <v>0.09717995945192703</v>
+        <v>0.1056380154025616</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304">
-        <v>6513.454323500519</v>
+        <v>2759.845456805181</v>
       </c>
       <c r="B304">
-        <v>0.08917957234483376</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
+        <v>0.1028003266325969</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
       <c r="A305">
-        <v>7002.992820844178</v>
+        <v>2834.534631010245</v>
       </c>
       <c r="B305">
-        <v>0.02072408906993306</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
+        <v>0.07851958202219478</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
       <c r="A306">
-        <v>7081.376947742079</v>
+        <v>2851.595637774792</v>
       </c>
       <c r="B306">
-        <v>0.009763105782626624</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
+        <v>0.07297320997490286</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
       <c r="A307">
-        <v>7753.864723362152</v>
+        <v>3049.190119738344</v>
       </c>
       <c r="B307">
-        <v>0</v>
-      </c>
-      <c r="C307" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
+        <v>0.00873711144997924</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
       <c r="A308">
-        <v>7173.659866180396</v>
+        <v>2840.399805323053</v>
       </c>
       <c r="B308">
-        <v>0.07482782817110767</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
+        <v>0.07661286928771227</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
       <c r="A309">
-        <v>6234.66509579507</v>
+        <v>2503.297795184721</v>
       </c>
       <c r="B309">
-        <v>0.1959280541727509</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
+        <v>0.1862015466688448</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
       <c r="A310">
-        <v>6297.049808077638</v>
+        <v>2525.694098737855</v>
       </c>
       <c r="B310">
-        <v>0.1878824260236546</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
+        <v>0.1789207200620644</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
       <c r="A311">
-        <v>5484.923881191884</v>
+        <v>2234.138393559326</v>
       </c>
       <c r="B311">
-        <v>0.2926206379812147</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
+        <v>0.2737027241810162</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
       <c r="A312">
-        <v>5772.440719127779</v>
+        <v>2337.357822541911</v>
       </c>
       <c r="B312">
-        <v>0.2555401822093187</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
+        <v>0.240147063395738</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
       <c r="A313">
-        <v>5785.208220683162</v>
+        <v>2341.941394862552</v>
       </c>
       <c r="B313">
-        <v>0.2538935837695865</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
+        <v>0.2386569873558663</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
       <c r="A314">
-        <v>5523.388944823419</v>
+        <v>2247.947469689716</v>
       </c>
       <c r="B314">
-        <v>0.2876598777662938</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
+        <v>0.2692135240473124</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
       <c r="A315">
-        <v>5740.925352301572</v>
+        <v>2326.043708936144</v>
       </c>
       <c r="B315">
-        <v>0.2596046543081486</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
+        <v>0.2438251747937896</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
       <c r="A316">
-        <v>6016.967333492015</v>
+        <v>2425.143629059959</v>
       </c>
       <c r="B316">
-        <v>0.2240040872310964</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
+        <v>0.2116087274030185</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
       <c r="A317">
-        <v>6109.08889710543</v>
+        <v>2458.215553686787</v>
       </c>
       <c r="B317">
-        <v>0.2121233584719455</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
+        <v>0.2008573572856607</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
       <c r="A318">
-        <v>6337.776849608992</v>
+        <v>2540.31523189025</v>
       </c>
       <c r="B318">
-        <v>0.1826299431671192</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3">
+        <v>0.1741675278656519</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
       <c r="A319">
-        <v>5992.563018296038</v>
+        <v>2416.382404857148</v>
       </c>
       <c r="B319">
-        <v>0.2271514616136348</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
+        <v>0.214456918584767</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
       <c r="A320">
-        <v>6165.493245672558</v>
+        <v>2478.464888275434</v>
       </c>
       <c r="B320">
-        <v>0.2048490055422144</v>
+        <v>0.1942744899971885</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321">
-        <v>5954.421266384546</v>
+        <v>2402.689398628492</v>
       </c>
       <c r="B321">
-        <v>0.2320705249803932</v>
+        <v>0.2189083854904499</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322">
-        <v>5971.391218230252</v>
+        <v>2408.781663526614</v>
       </c>
       <c r="B322">
-        <v>0.229881945162309</v>
+        <v>0.2169278477530254</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323">
-        <v>6363.312454790001</v>
+        <v>2549.482592676599</v>
       </c>
       <c r="B323">
-        <v>0.1793366686398927</v>
+        <v>0.1711873055191897</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324">
-        <v>6282.989059642081</v>
+        <v>2520.646246810276</v>
       </c>
       <c r="B324">
-        <v>0.1896958118560372</v>
+        <v>0.1805617290140196</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325">
-        <v>6296.887851182495</v>
+        <v>2525.635955714453</v>
       </c>
       <c r="B325">
-        <v>0.1879033132716168</v>
+        <v>0.1789396218094342</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326">
-        <v>6067.229963518803</v>
+        <v>2443.188067805786</v>
       </c>
       <c r="B326">
-        <v>0.2175218191209309</v>
+        <v>0.2057426509135056</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327">
-        <v>5567.511872834467</v>
+        <v>2265.179635268469</v>
       </c>
       <c r="B327">
-        <v>0.2819694344086598</v>
+        <v>0.2636115098872269</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328">
-        <v>5567.511872834467</v>
+        <v>2287.517795798201</v>
       </c>
       <c r="B328">
-        <v>0.2819694344086598</v>
+        <v>0.2563495850278165</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329">
-        <v>5533.281493080982</v>
+        <v>2151.226442188788</v>
       </c>
       <c r="B329">
-        <v>0.2863840561456563</v>
+        <v>0.3006566159304523</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330">
-        <v>5573.904984338411</v>
+        <v>2315.135731913913</v>
       </c>
       <c r="B330">
-        <v>0.2811449279551642</v>
+        <v>0.2473712550271276</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331">
-        <v>5581.83644280816</v>
+        <v>2332.252043736</v>
       </c>
       <c r="B331">
-        <v>0.280122024054629</v>
+        <v>0.2418069038283442</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332">
-        <v>5589.853196596508</v>
+        <v>2343.85622402357</v>
       </c>
       <c r="B332">
-        <v>0.2790881197921271</v>
+        <v>0.2380344944935998</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333">
-        <v>5609.527678535369</v>
+        <v>2364.569622074087</v>
       </c>
       <c r="B333">
-        <v>0.2765507422854518</v>
+        <v>0.2313007645597629</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334">
-        <v>5584.035147541662</v>
+        <v>2344.08814768197</v>
       </c>
       <c r="B334">
-        <v>0.279838461623255</v>
+        <v>0.2379590983042769</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335">
-        <v>5625.11420693015</v>
+        <v>2377.914634742607</v>
       </c>
       <c r="B335">
-        <v>0.2745405797470445</v>
+        <v>0.2269624270714239</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336">
-        <v>5624.969651792032</v>
+        <v>2378.146558401007</v>
       </c>
       <c r="B336">
-        <v>0.2745592227261621</v>
+        <v>0.2268870308821009</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337">
-        <v>5556.08810077059</v>
+        <v>2337.647889223714</v>
       </c>
       <c r="B337">
-        <v>0.2834427348170945</v>
+        <v>0.2400527654590452</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338">
-        <v>5485.05648330423</v>
+        <v>2295.582816735674</v>
       </c>
       <c r="B338">
-        <v>0.2926035365592689</v>
+        <v>0.2537277229474744</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339">
-        <v>5488.485520357368</v>
+        <v>2297.613499653358</v>
       </c>
       <c r="B339">
-        <v>0.2921613006968341</v>
+        <v>0.2530675671239059</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340">
-        <v>5560.090338113454</v>
+        <v>2334.862860017289</v>
       </c>
       <c r="B340">
-        <v>0.2829265744911598</v>
+        <v>0.2409581521313902</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341">
-        <v>5575.428577769899</v>
+        <v>2342.115391642619</v>
       </c>
       <c r="B341">
-        <v>0.2809484332411286</v>
+        <v>0.2386004226471944</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342">
-        <v>5394.317628824935</v>
+        <v>2267.442457989622</v>
       </c>
       <c r="B342">
-        <v>0.3043059401627134</v>
+        <v>0.2628758876076166</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343">
-        <v>5405.964778149352</v>
+        <v>2272.258170113731</v>
       </c>
       <c r="B343">
-        <v>0.3028038312480035</v>
+        <v>0.2613103451117031</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344">
-        <v>5550.535761488312</v>
+        <v>2326.624058444817</v>
       </c>
       <c r="B344">
-        <v>0.2841588086048598</v>
+        <v>0.2436365086536852</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345">
-        <v>5768.365698499316</v>
+        <v>2408.259457041342</v>
       </c>
       <c r="B345">
-        <v>0.2560657292460352</v>
+        <v>0.2170976121457601</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346">
-        <v>5853.51585966506</v>
+        <v>2440.170898795892</v>
       </c>
       <c r="B346">
-        <v>0.2450840879350655</v>
+        <v>0.2067235040418923</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347">
-        <v>5909.870260586673</v>
+        <v>2461.290649575014</v>
       </c>
       <c r="B347">
-        <v>0.2378161766505394</v>
+        <v>0.1998576726766229</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348">
-        <v>6101.071847764486</v>
+        <v>2532.946630363185</v>
       </c>
       <c r="B348">
-        <v>0.2131573008512585</v>
+        <v>0.1765629905778686</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349">
-        <v>6016.38596690231</v>
+        <v>2501.209185388703</v>
       </c>
       <c r="B349">
-        <v>0.224079064885524</v>
+        <v>0.1868805339730644</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350">
-        <v>5980.003116728449</v>
+        <v>2487.574106038381</v>
       </c>
       <c r="B350">
-        <v>0.2287712863095372</v>
+        <v>0.1913131693980962</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351">
-        <v>5963.747538646394</v>
+        <v>2481.482057285328</v>
       </c>
       <c r="B351">
-        <v>0.230867734811286</v>
+        <v>0.1932936368688019</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352">
-        <v>5775.797067084992</v>
+        <v>2411.044486247767</v>
       </c>
       <c r="B352">
-        <v>0.2551073209102172</v>
+        <v>0.2161922254734151</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353">
-        <v>5819.456141246194</v>
+        <v>2427.406451781113</v>
       </c>
       <c r="B353">
-        <v>0.2494766998304273</v>
+        <v>0.2108731051234082</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354">
-        <v>5971.023762633735</v>
+        <v>2484.208943468351</v>
       </c>
       <c r="B354">
-        <v>0.2299293351555094</v>
+        <v>0.1924071519438267</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355">
-        <v>5989.447327872449</v>
+        <v>2491.113481533546</v>
       </c>
       <c r="B355">
-        <v>0.2275532858051507</v>
+        <v>0.1901625518769748</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356">
-        <v>5822.552112264269</v>
+        <v>2428.566718508322</v>
       </c>
       <c r="B356">
-        <v>0.249077418810119</v>
+        <v>0.2104959133766369</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357">
-        <v>6160.986500007743</v>
+        <v>2555.400644649584</v>
       </c>
       <c r="B357">
-        <v>0.2054302312697199</v>
+        <v>0.169263402757156</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358">
-        <v>6526.359526781076</v>
+        <v>2692.330274646003</v>
       </c>
       <c r="B358">
-        <v>0.158308822809694</v>
+        <v>0.1247488742337646</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359">
-        <v>6450.962712464565</v>
+        <v>2664.074062143285</v>
       </c>
       <c r="B359">
-        <v>0.1680325950196144</v>
+        <v>0.1339347018552088</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360">
-        <v>6497.872902242178</v>
+        <v>2681.654437427242</v>
       </c>
       <c r="B360">
-        <v>0.1619826842394749</v>
+        <v>0.1282194880110608</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361">
-        <v>6400.646262472206</v>
+        <v>2645.217134085317</v>
       </c>
       <c r="B361">
-        <v>0.1745218041801453</v>
+        <v>0.1400649109408679</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362">
-        <v>6194.117657819474</v>
+        <v>2567.817098104228</v>
       </c>
       <c r="B362">
-        <v>0.2011573739277666</v>
+        <v>0.1652269310929841</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363">
-        <v>6363.335428436929</v>
+        <v>2631.234277319927</v>
       </c>
       <c r="B363">
-        <v>0.1793337057758568</v>
+        <v>0.1446106055165248</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364">
-        <v>6127.700774343395</v>
+        <v>2542.926264316608</v>
       </c>
       <c r="B364">
-        <v>0.2097230229100046</v>
+        <v>0.173318705901979</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365">
-        <v>6110.670626761103</v>
+        <v>2536.543932736684</v>
       </c>
       <c r="B365">
-        <v>0.2119193660485406</v>
+        <v>0.1753935415760962</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366">
-        <v>6038.834063766235</v>
+        <v>2509.621983741243</v>
       </c>
       <c r="B366">
-        <v>0.2211839799614486</v>
+        <v>0.1841456127420973</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367">
-        <v>6100.297278264248</v>
+        <v>2532.656347536315</v>
       </c>
       <c r="B367">
-        <v>0.2132571954880457</v>
+        <v>0.1766573587812803</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368">
-        <v>6258.368284376049</v>
+        <v>2591.896091014911</v>
       </c>
       <c r="B368">
-        <v>0.192871102649008</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2">
+        <v>0.157399078079979</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
       <c r="A369">
-        <v>6047.040001852149</v>
+        <v>2512.697295774538</v>
       </c>
       <c r="B369">
-        <v>0.2201256769888432</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2">
+        <v>0.1831458578663407</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
       <c r="A370">
-        <v>6122.282248316043</v>
+        <v>2540.895581398923</v>
       </c>
       <c r="B370">
-        <v>0.2104218390772542</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2">
+        <v>0.1739788617255474</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
       <c r="A371">
-        <v>6348.472114519858</v>
+        <v>2625.664002762009</v>
       </c>
       <c r="B371">
-        <v>0.1812505968292031</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2">
+        <v>0.1464214491279335</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
       <c r="A372">
-        <v>6568.315470834905</v>
+        <v>2708.053963792343</v>
       </c>
       <c r="B372">
-        <v>0.1528978509200999</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
+        <v>0.1196372515045131</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
       <c r="A373">
-        <v>7175.515670483643</v>
+        <v>2935.612356391568</v>
       </c>
       <c r="B373">
-        <v>0.07458848890359948</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2">
+        <v>0.04566016883540625</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
       <c r="A374">
-        <v>6855.039990929597</v>
+        <v>2815.508755390365</v>
       </c>
       <c r="B374">
-        <v>0.1159195787520543</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2">
+        <v>0.08470471436342597</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
       <c r="A375">
-        <v>7150.589297266388</v>
+        <v>2926.270782680083</v>
       </c>
       <c r="B375">
-        <v>0.07780319203636799</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
+        <v>0.04869702615725924</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
       <c r="A376">
-        <v>6996.080272713387</v>
+        <v>2868.365951143969</v>
       </c>
       <c r="B376">
-        <v>0.09772990343326271</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2">
+        <v>0.06752133960296081</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
       <c r="A377">
-        <v>7089.28122736671</v>
+        <v>2903.294561908413</v>
       </c>
       <c r="B377">
-        <v>0.08570996782972928</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2">
+        <v>0.05616637837070637</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
       <c r="A378">
-        <v>7286.675333326393</v>
+        <v>2977.271292296071</v>
       </c>
       <c r="B378">
-        <v>0.06025245560812176</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2">
+        <v>0.03211724251169068</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
       <c r="A379">
-        <v>7275.83828127169</v>
+        <v>2973.209926460702</v>
       </c>
       <c r="B379">
-        <v>0.06165008794262083</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
+        <v>0.03343755415882776</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
       <c r="A380">
-        <v>7493.203937979126</v>
+        <v>3054.67132827716</v>
       </c>
       <c r="B380">
-        <v>0.03361688586050049</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2">
+        <v>0.006955222359574575</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
       <c r="A381">
-        <v>7252.615614907527</v>
+        <v>2964.506845281292</v>
       </c>
       <c r="B381">
-        <v>0.06464506750348342</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
+        <v>0.03626684359320642</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
       <c r="A382">
-        <v>7054.292371594989</v>
+        <v>2890.18190518843</v>
       </c>
       <c r="B382">
-        <v>0.09022240866020959</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
+        <v>0.06042917913628487</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
       <c r="A383">
-        <v>7247.351656732792</v>
+        <v>2962.534089241941</v>
       </c>
       <c r="B383">
-        <v>0.06532394937240171</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2">
+        <v>0.03690816793612395</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
       <c r="A384">
-        <v>7581.760359359616</v>
+        <v>3087.859322805722</v>
       </c>
       <c r="B384">
-        <v>0.02219594616913956</v>
+        <v>0</v>
+      </c>
+      <c r="C384" s="2">
+        <v>95</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385">
-        <v>7523.858549674684</v>
+        <v>3066.159654808063</v>
       </c>
       <c r="B385">
-        <v>0.0296634235821096</v>
+        <v>0.007027414700337187</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386">
-        <v>7413.008022537166</v>
+        <v>3024.616572660227</v>
       </c>
       <c r="B386">
-        <v>0.04395958828092472</v>
+        <v>0.02048109824123423</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387">
-        <v>8014.789119412833</v>
+        <v>3250.144066196699</v>
       </c>
       <c r="B387">
         <v>0</v>
       </c>
       <c r="C387" s="2">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388">
-        <v>8668.589796388233</v>
+        <v>3495.166764178146</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -3556,7 +3547,7 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389">
-        <v>8787.491693759048</v>
+        <v>3539.727231480945</v>
       </c>
       <c r="B389">
         <v>0</v>
@@ -3564,7 +3555,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390">
-        <v>9539.137281914884</v>
+        <v>3821.41894031765</v>
       </c>
       <c r="B390">
         <v>0</v>
@@ -3572,55 +3563,55 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391">
-        <v>9483.247161296838</v>
+        <v>3800.473186318595</v>
       </c>
       <c r="B391">
-        <v>0.005859033051553442</v>
+        <v>0.005481145701683565</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392">
-        <v>8934.104492677086</v>
+        <v>3594.672820885498</v>
       </c>
       <c r="B392">
-        <v>0.06342636355437203</v>
+        <v>0.05933558266534977</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393">
-        <v>8165.119044488007</v>
+        <v>3306.482710567136</v>
       </c>
       <c r="B393">
-        <v>0.1440400946982762</v>
+        <v>0.1347500072074564</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394">
-        <v>8147.314327405476</v>
+        <v>3299.810096160341</v>
       </c>
       <c r="B394">
-        <v>0.1459065860335341</v>
+        <v>0.1364961163127407</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395">
-        <v>8438.993669969672</v>
+        <v>3409.121790041048</v>
       </c>
       <c r="B395">
-        <v>0.1153294663272074</v>
+        <v>0.1078911149800105</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396">
-        <v>9039.381349188918</v>
+        <v>3634.127077092249</v>
       </c>
       <c r="B396">
-        <v>0.05239005561576793</v>
+        <v>0.04901107838488705</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397">
-        <v>9664.23054457613</v>
+        <v>3868.299724929799</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -3631,127 +3622,127 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398">
-        <v>9178.09965270915</v>
+        <v>3686.114072800447</v>
       </c>
       <c r="B398">
-        <v>0.05030207936624731</v>
+        <v>0.04709708788986311</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399">
-        <v>9358.15389863559</v>
+        <v>3753.592401706446</v>
       </c>
       <c r="B399">
-        <v>0.03167108281707132</v>
+        <v>0.02965316324485023</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400">
-        <v>9651.690362414056</v>
+        <v>3863.600082707424</v>
       </c>
       <c r="B400">
-        <v>0.001297587232033992</v>
+        <v>0.001214911603691693</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401">
-        <v>8899.115636905366</v>
+        <v>3581.560164165516</v>
       </c>
       <c r="B401">
-        <v>0.07916976981681911</v>
+        <v>0.0741254766057422</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402">
-        <v>9356.760480979168</v>
+        <v>3753.070195221175</v>
       </c>
       <c r="B402">
-        <v>0.03181526580711835</v>
+        <v>0.02978815963148129</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403">
-        <v>9430.144452737355</v>
+        <v>3780.572061435152</v>
       </c>
       <c r="B403">
-        <v>0.02422190683045655</v>
+        <v>0.02267861069018862</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404">
-        <v>9271.300607362473</v>
+        <v>3721.04268356489</v>
       </c>
       <c r="B404">
-        <v>0.04065817091192858</v>
+        <v>0.03806764000625118</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405">
-        <v>8708.688042482072</v>
+        <v>3510.194250059147</v>
       </c>
       <c r="B405">
-        <v>0.0988741418870992</v>
+        <v>0.09257438676811702</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406">
-        <v>8989.68490084418</v>
+        <v>3615.502504982818</v>
       </c>
       <c r="B406">
-        <v>0.06979817385570608</v>
+        <v>0.06535099085466245</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407">
-        <v>8771.389530038172</v>
+        <v>3533.692677316089</v>
       </c>
       <c r="B407">
-        <v>0.09238614604853868</v>
+        <v>0.08649977287367061</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408">
-        <v>8545.973079843157</v>
+        <v>3449.214106489737</v>
       </c>
       <c r="B408">
-        <v>0.1157109673217155</v>
+        <v>0.1083384557145884</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409">
-        <v>8911.500674469107</v>
+        <v>3586.201663364489</v>
       </c>
       <c r="B409">
-        <v>0.0778882360716735</v>
+        <v>0.07292559564278056</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410">
-        <v>9262.321253267759</v>
+        <v>3717.677520994861</v>
       </c>
       <c r="B410">
-        <v>0.04158730376459563</v>
+        <v>0.03893757326099423</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411">
-        <v>9194.045518340254</v>
+        <v>3692.090051651765</v>
       </c>
       <c r="B411">
-        <v>0.04865209124173464</v>
+        <v>0.04555222857795271</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412">
-        <v>9230.428368514114</v>
+        <v>3705.725131002087</v>
       </c>
       <c r="B412">
-        <v>0.04488739937040087</v>
+        <v>0.04202740363679069</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413">
-        <v>9981.919388817332</v>
+        <v>3987.358912960459</v>
       </c>
       <c r="B413">
         <v>0</v>
@@ -3762,7 +3753,7 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414">
-        <v>10067.38041592547</v>
+        <v>4019.38685690688</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -3770,7 +3761,7 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415">
-        <v>10240.00271652051</v>
+        <v>4084.079940461386</v>
       </c>
       <c r="B415">
         <v>0</v>
@@ -3778,7 +3769,7 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416">
-        <v>10304.71820012637</v>
+        <v>4108.333146297206</v>
       </c>
       <c r="B416">
         <v>0</v>
@@ -3786,125 +3777,122 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417">
-        <v>9997.401550890587</v>
+        <v>3993.161111176778</v>
       </c>
       <c r="B417">
-        <v>0.02982290667900223</v>
+        <v>0.02803376236034583</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418">
-        <v>9523.655696587348</v>
+        <v>3815.616958246399</v>
       </c>
       <c r="B418">
-        <v>0.07579659029680652</v>
+        <v>0.07124937964552081</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419">
-        <v>9970.617479713343</v>
+        <v>3983.123334199954</v>
       </c>
       <c r="B419">
-        <v>0.03242211130130002</v>
+        <v>0.03047703475802632</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420">
-        <v>9182.743609236264</v>
+        <v>3569.994937509937</v>
       </c>
       <c r="B420">
-        <v>0.1088796965720371</v>
+        <v>0.1310356754472229</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421">
-        <v>9596.8845237472</v>
+        <v>3612.982899421992</v>
       </c>
       <c r="B421">
-        <v>0.06869025068249723</v>
+        <v>0.1205720736940887</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422">
-        <v>9821.527557933412</v>
+        <v>3647.767626496332</v>
       </c>
       <c r="B422">
-        <v>0.04689023346480592</v>
+        <v>0.1121052026211595</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423">
-        <v>9985.945073933981</v>
+        <v>3681.512281400615</v>
       </c>
       <c r="B423">
-        <v>0.03093467671813499</v>
+        <v>0.1038914931427309</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424">
-        <v>10723.96735146799</v>
+        <v>3835.062140149528</v>
       </c>
       <c r="B424">
-        <v>0</v>
-      </c>
-      <c r="C424" s="2">
-        <v>8</v>
+        <v>0.06651627227309287</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425">
-        <v>11425.29706637719</v>
+        <v>3980.977896270806</v>
       </c>
       <c r="B425">
-        <v>0</v>
+        <v>0.03099925091059941</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426">
-        <v>11449.91372714349</v>
+        <v>3986.688872935893</v>
       </c>
       <c r="B426">
-        <v>0</v>
+        <v>0.02960915510733331</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427">
-        <v>11762.18346861162</v>
+        <v>4078.471590876432</v>
       </c>
       <c r="B427">
-        <v>0</v>
+        <v>0.007268533090527884</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428">
-        <v>11518.34345317789</v>
+        <v>3995.556882441642</v>
       </c>
       <c r="B428">
-        <v>0.02073084611241072</v>
+        <v>0.0274506131415384</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429">
-        <v>11402.07382326731</v>
+        <v>3956.256862849595</v>
       </c>
       <c r="B429">
-        <v>0.03061588405803228</v>
+        <v>0.03701654126678477</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430">
-        <v>12108.82264094957</v>
+        <v>4195.143340796831</v>
       </c>
       <c r="B430">
         <v>0</v>
       </c>
       <c r="C430" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431">
-        <v>15262.7958224655</v>
+        <v>5261.210274369123</v>
       </c>
       <c r="B431">
         <v>0</v>
@@ -3912,7 +3900,7 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432">
-        <v>16240.47901595541</v>
+        <v>5591.674632847908</v>
       </c>
       <c r="B432">
         <v>0</v>
@@ -3920,7 +3908,7 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433">
-        <v>17140.44110988238</v>
+        <v>5895.868668303492</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -3928,7 +3916,7 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434">
-        <v>18825.80052817025</v>
+        <v>6465.532975391152</v>
       </c>
       <c r="B434">
         <v>0</v>
@@ -3936,7 +3924,7 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435">
-        <v>19080.47759565868</v>
+        <v>6551.615762010815</v>
       </c>
       <c r="B435">
         <v>0</v>
@@ -3944,15 +3932,15 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436">
-        <v>18957.55232015409</v>
+        <v>6510.066083565953</v>
       </c>
       <c r="B436">
-        <v>0.006442463239628604</v>
+        <v>0.006341897930856377</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437">
-        <v>19872.06686205574</v>
+        <v>6819.178957164886</v>
       </c>
       <c r="B437">
         <v>0</v>
@@ -3963,79 +3951,79 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438">
-        <v>19535.33502767392</v>
+        <v>6705.361034989955</v>
       </c>
       <c r="B438">
-        <v>0.01694498296122304</v>
+        <v>0.01669085426411088</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439">
-        <v>16946.14239819505</v>
+        <v>5830.194225356581</v>
       </c>
       <c r="B439">
-        <v>0.1472380545099476</v>
+        <v>0.1450298838057597</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440">
-        <v>16375.63476117113</v>
+        <v>5637.35830311537</v>
       </c>
       <c r="B440">
-        <v>0.1759470781351282</v>
+        <v>0.1733083500921736</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441">
-        <v>17610.00671121636</v>
+        <v>6054.585414425137</v>
       </c>
       <c r="B441">
-        <v>0.113831146329254</v>
+        <v>0.1121239884658538</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442">
-        <v>19184.98045941599</v>
+        <v>6586.938525111082</v>
       </c>
       <c r="B442">
-        <v>0.03457548766362539</v>
+        <v>0.03405694930616099</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443">
-        <v>18208.2281335161</v>
+        <v>6256.788806960585</v>
       </c>
       <c r="B443">
-        <v>0.0837275125979281</v>
+        <v>0.08247182743509018</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444">
-        <v>19126.30350348511</v>
+        <v>6567.105267540219</v>
       </c>
       <c r="B444">
-        <v>0.03752822309563664</v>
+        <v>0.03696540173063123</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445">
-        <v>19197.82920053758</v>
+        <v>6591.281497374775</v>
       </c>
       <c r="B445">
-        <v>0.03392891470215231</v>
+        <v>0.03342007318207418</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446">
-        <v>19600.35964698502</v>
+        <v>6727.33985108197</v>
       </c>
       <c r="B446">
-        <v>0.01367282109892298</v>
+        <v>0.01346776593777776</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447">
-        <v>21255.52988737234</v>
+        <v>7286.799986333253</v>
       </c>
       <c r="B447">
         <v>0</v>
@@ -4046,7 +4034,7 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448">
-        <v>21435.58297980734</v>
+        <v>7347.659301579597</v>
       </c>
       <c r="B448">
         <v>0</v>
@@ -4054,31 +4042,31 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449">
-        <v>17316.93337425002</v>
+        <v>5955.524396569135</v>
       </c>
       <c r="B449">
-        <v>0.1921407786966723</v>
+        <v>0.1894664474591495</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450">
-        <v>19200.46262148925</v>
+        <v>6592.171613693836</v>
       </c>
       <c r="B450">
-        <v>0.1042714984903191</v>
+        <v>0.102820184888451</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451">
-        <v>19215.63449436583</v>
+        <v>6597.299822167161</v>
       </c>
       <c r="B451">
-        <v>0.1035637093487373</v>
+        <v>0.1021222471830076</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452">
-        <v>21675.86216717371</v>
+        <v>7428.875495166185</v>
       </c>
       <c r="B452">
         <v>0</v>
@@ -4089,71 +4077,71 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453">
-        <v>20520.44901300379</v>
+        <v>7038.337057650688</v>
       </c>
       <c r="B453">
-        <v>0.05330413827412572</v>
+        <v>0.05257033016229884</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454">
-        <v>21264.97236827918</v>
+        <v>7289.99161672652</v>
       </c>
       <c r="B454">
-        <v>0.0189560994494965</v>
+        <v>0.01869514148272289</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455">
-        <v>19299.70210381754</v>
+        <v>6625.715313822629</v>
       </c>
       <c r="B455">
-        <v>0.1096224014080814</v>
+        <v>0.1081132914215825</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456">
-        <v>20703.28894075163</v>
+        <v>7100.138344437482</v>
       </c>
       <c r="B456">
-        <v>0.0448689523360668</v>
+        <v>0.04425126668802093</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457">
-        <v>21474.44410633453</v>
+        <v>7360.794658035638</v>
       </c>
       <c r="B457">
-        <v>0.009292274479591689</v>
+        <v>0.009164352959589284</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458">
-        <v>21451.99485597917</v>
+        <v>7353.206640601757</v>
       </c>
       <c r="B458">
-        <v>0.01032795417630805</v>
+        <v>0.01018577503602858</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459">
-        <v>20437.93054255255</v>
+        <v>7010.4451867646</v>
       </c>
       <c r="B459">
-        <v>0.05711106737409954</v>
+        <v>0.05632485140905219</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460">
-        <v>21391.92563588329</v>
+        <v>7332.902787149551</v>
       </c>
       <c r="B460">
-        <v>0.01309920357956562</v>
+        <v>0.01291887420634275</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461">
-        <v>23523.78313373932</v>
+        <v>8053.486842483881</v>
       </c>
       <c r="B461">
         <v>0</v>
@@ -4164,7 +4152,7 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462">
-        <v>25886.6295989246</v>
+        <v>8852.146926344039</v>
       </c>
       <c r="B462">
         <v>0</v>
@@ -4172,15 +4160,15 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463">
-        <v>24821.16570704588</v>
+        <v>8492.012023896577</v>
       </c>
       <c r="B463">
-        <v>0.04115884950596216</v>
+        <v>0.0406833399223977</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464">
-        <v>26733.48840754636</v>
+        <v>9138.391647309663</v>
       </c>
       <c r="B464">
         <v>0</v>
@@ -4191,23 +4179,23 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465">
-        <v>26070.2446729184</v>
+        <v>8914.210218459966</v>
       </c>
       <c r="B465">
-        <v>0.02480947209421203</v>
+        <v>0.02453182545702082</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466">
-        <v>25068.10284698912</v>
+        <v>8575.478656113746</v>
       </c>
       <c r="B466">
-        <v>0.06229585661133319</v>
+        <v>0.06159869405046114</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467">
-        <v>27212.81023945817</v>
+        <v>9300.406073600652</v>
       </c>
       <c r="B467">
         <v>0</v>
@@ -4218,7 +4206,7 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468">
-        <v>27506.65526219615</v>
+        <v>9399.727927119138</v>
       </c>
       <c r="B468">
         <v>0</v>
@@ -4226,15 +4214,15 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469">
-        <v>27067.74484930345</v>
+        <v>9251.372867942455</v>
       </c>
       <c r="B469">
-        <v>0.01595651702138856</v>
+        <v>0.01578290992323983</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470">
-        <v>27761.95290807792</v>
+        <v>9486.02047395766</v>
       </c>
       <c r="B470">
         <v>0</v>
@@ -4245,7 +4233,7 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471">
-        <v>28607.88430958399</v>
+        <v>9771.951724261644</v>
       </c>
       <c r="B471">
         <v>0</v>
@@ -4253,39 +4241,39 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472">
-        <v>28216.19091519126</v>
+        <v>9639.556376606824</v>
       </c>
       <c r="B472">
-        <v>0.01369179874170234</v>
+        <v>0.0135485061112316</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473">
-        <v>27991.08475419291</v>
+        <v>9563.468781382444</v>
       </c>
       <c r="B473">
-        <v>0.02156047433344932</v>
+        <v>0.02133483144023129</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474">
-        <v>27663.33400414297</v>
+        <v>9452.686534047725</v>
       </c>
       <c r="B474">
-        <v>0.03301713245269888</v>
+        <v>0.03267158897451905</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475">
-        <v>27705.75249826321</v>
+        <v>9467.024307817819</v>
       </c>
       <c r="B475">
-        <v>0.03153437708144524</v>
+        <v>0.03120435149989087</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476">
-        <v>28756.82081700274</v>
+        <v>9822.293397009971</v>
       </c>
       <c r="B476">
         <v>0</v>
@@ -4296,7 +4284,7 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477">
-        <v>30146.00977381476</v>
+        <v>10291.84983459175</v>
       </c>
       <c r="B477">
         <v>0</v>
@@ -4304,7 +4292,7 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478">
-        <v>30384.27727211424</v>
+        <v>10372.38606196702</v>
       </c>
       <c r="B478">
         <v>0</v>
@@ -4312,429 +4300,426 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479">
-        <v>29734.03799995192</v>
+        <v>10152.60024038017</v>
       </c>
       <c r="B479">
-        <v>0.02140051798299936</v>
+        <v>0.02118951418446979</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480">
-        <v>30051.88025855431</v>
+        <v>10260.03334221304</v>
       </c>
       <c r="B480">
-        <v>0.01093977028260606</v>
+        <v>0.0108319068614261</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481">
-        <v>27637.47734008142</v>
+        <v>8814.795791563118</v>
       </c>
       <c r="B481">
-        <v>0.09040201639266099</v>
+        <v>0.1501670166438559</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482">
-        <v>24545.89881739923</v>
+        <v>8707.631207132423</v>
       </c>
       <c r="B482">
-        <v>0.1921513025446652</v>
+        <v>0.160498736249207</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483">
-        <v>25250.3245033265</v>
+        <v>8731.946380758369</v>
       </c>
       <c r="B483">
-        <v>0.1689674143903211</v>
+        <v>0.1581545144394245</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484">
-        <v>23057.46807127603</v>
+        <v>8656.25396075257</v>
       </c>
       <c r="B484">
-        <v>0.2411381760119248</v>
+        <v>0.1654520079528355</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485">
-        <v>22482.1596028895</v>
+        <v>8636.395620012367</v>
       </c>
       <c r="B485">
-        <v>0.2600725894664297</v>
+        <v>0.1673665472518517</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486">
-        <v>22691.78590879747</v>
+        <v>8643.631443643653</v>
       </c>
       <c r="B486">
-        <v>0.2531734190820035</v>
+        <v>0.1666689427095547</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487">
-        <v>22088.765962118</v>
+        <v>8622.816565656745</v>
       </c>
       <c r="B487">
-        <v>0.2730198660216155</v>
+        <v>0.168675701604042</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488">
-        <v>24421.57781725534</v>
+        <v>8703.339928770149</v>
       </c>
       <c r="B488">
-        <v>0.1962429252951586</v>
+        <v>0.1609124576761416</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489">
-        <v>23135.34258520016</v>
+        <v>8658.942011976325</v>
       </c>
       <c r="B489">
-        <v>0.2385751888055253</v>
+        <v>0.165192853385343</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490">
-        <v>24387.9812256486</v>
+        <v>8702.180250787818</v>
       </c>
       <c r="B490">
-        <v>0.1973486482092123</v>
+        <v>0.1610242620358523</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491">
-        <v>23947.36825939425</v>
+        <v>8686.971292638862</v>
       </c>
       <c r="B491">
-        <v>0.2118499958077854</v>
+        <v>0.1624905551392998</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492">
-        <v>23778.30563337513</v>
+        <v>8681.135635042274</v>
       </c>
       <c r="B492">
-        <v>0.2174141441502007</v>
+        <v>0.1630531699091053</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493">
-        <v>25667.71537996241</v>
+        <v>8746.353765153968</v>
       </c>
       <c r="B493">
-        <v>0.1552303466003634</v>
+        <v>0.1567655009270537</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494">
-        <v>26841.3998385013</v>
+        <v>8809.008111285144</v>
       </c>
       <c r="B494">
-        <v>0.1166023269825966</v>
+        <v>0.1507250059284233</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495">
-        <v>28498.27263225027</v>
+        <v>8928.396546116062</v>
       </c>
       <c r="B495">
-        <v>0.0620717294992198</v>
+        <v>0.1392147869568516</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496">
-        <v>29076.21106111416</v>
+        <v>8979.816743547806</v>
       </c>
       <c r="B496">
-        <v>0.04305075942025405</v>
+        <v>0.1342573743495163</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497">
-        <v>27909.02998729953</v>
+        <v>8854.508699284115</v>
       </c>
       <c r="B497">
-        <v>0.08146474120963942</v>
+        <v>0.1463383018733351</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498">
-        <v>28383.70555570134</v>
+        <v>8913.183340156595</v>
       </c>
       <c r="B498">
-        <v>0.06584233347057311</v>
+        <v>0.1406814895909978</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499">
-        <v>27459.74507241853</v>
+        <v>8781.249040866085</v>
       </c>
       <c r="B499">
-        <v>0.09625149788834231</v>
+        <v>0.1534012532502275</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500">
-        <v>29878.79194741854</v>
+        <v>9168.651987114796</v>
       </c>
       <c r="B500">
-        <v>0.01663641100193702</v>
+        <v>0.1160518001991864</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501">
-        <v>28729.26159957954</v>
+        <v>8964.712302936443</v>
       </c>
       <c r="B501">
-        <v>0.05446947635820931</v>
+        <v>0.1357135909346999</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502">
-        <v>27883.6393337787</v>
+        <v>8799.931173282066</v>
       </c>
       <c r="B502">
-        <v>0.08230039227000296</v>
+        <v>0.1516001119984105</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503">
-        <v>28063.8493010492</v>
+        <v>8837.517890163208</v>
       </c>
       <c r="B503">
-        <v>0.07636936532285599</v>
+        <v>0.147976382930037</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504">
-        <v>28349.64526053676</v>
+        <v>8902.731963999802</v>
       </c>
       <c r="B504">
-        <v>0.06696331768420272</v>
+        <v>0.1416891050127872</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505">
-        <v>27614.25525046297</v>
+        <v>8720.345353740209</v>
       </c>
       <c r="B505">
-        <v>0.09116629620127625</v>
+        <v>0.159272967507875</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506">
-        <v>28125.46650665411</v>
+        <v>8855.54083895322</v>
       </c>
       <c r="B506">
-        <v>0.07434143472397814</v>
+        <v>0.1462387934610045</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507">
-        <v>28079.02232741722</v>
+        <v>8843.217242475712</v>
       </c>
       <c r="B507">
-        <v>0.07586999434120867</v>
+        <v>0.1474269093298013</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508">
-        <v>27721.08009248384</v>
+        <v>8748.240094896519</v>
       </c>
       <c r="B508">
-        <v>0.08765050278403685</v>
+        <v>0.1565836401930547</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509">
-        <v>26141.77267695375</v>
+        <v>8329.183334227764</v>
       </c>
       <c r="B509">
-        <v>0.1396282872607316</v>
+        <v>0.1969848321815917</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510">
-        <v>25942.20943034597</v>
+        <v>8276.230801459515</v>
       </c>
       <c r="B510">
-        <v>0.1461962646663003</v>
+        <v>0.2020899769816308</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511">
-        <v>24607.05001246341</v>
+        <v>7921.956785436833</v>
       </c>
       <c r="B511">
-        <v>0.1901387091722267</v>
+        <v>0.2362454754278096</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512">
-        <v>24667.43067524739</v>
+        <v>7937.978317853177</v>
       </c>
       <c r="B512">
-        <v>0.1881514753722181</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
+        <v>0.2347008421755736</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
       <c r="A513">
-        <v>26418.43298425683</v>
+        <v>8402.592963691914</v>
       </c>
       <c r="B513">
-        <v>0.130522910001784</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
+        <v>0.1899074221213043</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
       <c r="A514">
-        <v>26631.92810044595</v>
+        <v>8459.242208119595</v>
       </c>
       <c r="B514">
-        <v>0.1234964102671643</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
+        <v>0.1844458779703978</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
       <c r="A515">
-        <v>26235.28392080375</v>
+        <v>8353.995804902279</v>
       </c>
       <c r="B515">
-        <v>0.1365506677731089</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
+        <v>0.1945926660467912</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
       <c r="A516">
-        <v>28243.75013261446</v>
+        <v>8886.926465746128</v>
       </c>
       <c r="B516">
-        <v>0.07044851257542639</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3">
+        <v>0.1432129104476456</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
       <c r="A517">
-        <v>28610.98028060206</v>
+        <v>8984.368087764942</v>
       </c>
       <c r="B517">
-        <v>0.05836232257989749</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
+        <v>0.1338185800171472</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
       <c r="A518">
-        <v>29832.65690388688</v>
+        <v>9329.26777379618</v>
       </c>
       <c r="B518">
-        <v>0.01815479641945028</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
+        <v>0.1005668591526587</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
       <c r="A519">
-        <v>30586.31591134676</v>
+        <v>9554.390190775672</v>
       </c>
       <c r="B519">
-        <v>0</v>
-      </c>
-      <c r="C519" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
+        <v>0.07886284470173499</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
       <c r="A520">
-        <v>33150.73731220671</v>
+        <v>10322.08174456207</v>
       </c>
       <c r="B520">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
+        <v>0.004849830801169519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
       <c r="A521">
-        <v>31212.86939033278</v>
+        <v>9741.956794942895</v>
       </c>
       <c r="B521">
-        <v>0.05845625403813759</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3">
+        <v>0.06077957986308968</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
       <c r="A522">
-        <v>32252.78575385519</v>
+        <v>10053.26873792259</v>
       </c>
       <c r="B522">
-        <v>0.02708692569624604</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3">
+        <v>0.03076604767099389</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
       <c r="A523">
-        <v>32743.40718788811</v>
+        <v>10200.14238781778</v>
       </c>
       <c r="B523">
-        <v>0.01228721160806912</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
+        <v>0.01660598372642663</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
       <c r="A524">
-        <v>32818.18573079415</v>
+        <v>10222.52827797381</v>
       </c>
       <c r="B524">
-        <v>0.0100314987953557</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
+        <v>0.01444776381229185</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
       <c r="A525">
-        <v>30515.40848570475</v>
+        <v>9533.163167889395</v>
       </c>
       <c r="B525">
-        <v>0.07949533072772974</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
+        <v>0.08090933841682246</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
       <c r="A526">
-        <v>32326.63458266267</v>
+        <v>10075.37630655912</v>
       </c>
       <c r="B526">
-        <v>0.02485925793392807</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3">
+        <v>0.02863466068785803</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
       <c r="A527">
-        <v>32116.24005145737</v>
+        <v>10012.39207763521</v>
       </c>
       <c r="B527">
-        <v>0.03120585979752599</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3">
+        <v>0.0347069596311903</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
       <c r="A528">
-        <v>33147.64134118863</v>
+        <v>10321.15492699591</v>
       </c>
       <c r="B528">
-        <v>9.33907137243839E-05</v>
+        <v>0.004939185127225243</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529">
-        <v>33424.30395547458</v>
+        <v>10403.97733370511</v>
       </c>
       <c r="B529">
         <v>0</v>
       </c>
       <c r="C529" s="2">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530">
-        <v>33212.66365351685</v>
+        <v>10340.62016775755</v>
       </c>
       <c r="B530">
-        <v>0.006331928474551329</v>
+        <v>0.006089706264766903</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531">
-        <v>35712.99245614716</v>
+        <v>11089.1248023018</v>
       </c>
       <c r="B531">
         <v>0</v>
@@ -4745,7 +4730,7 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532">
-        <v>37778.43422401854</v>
+        <v>11707.44057501403</v>
       </c>
       <c r="B532">
         <v>0</v>
@@ -4753,7 +4738,7 @@
     </row>
     <row r="533" spans="1:3">
       <c r="A533">
-        <v>39039.28110953578</v>
+        <v>12084.89082726387</v>
       </c>
       <c r="B533">
         <v>0</v>
@@ -4761,87 +4746,87 @@
     </row>
     <row r="534" spans="1:3">
       <c r="A534">
-        <v>37624.69688523718</v>
+        <v>11661.41738380043</v>
       </c>
       <c r="B534">
-        <v>0.03623489429350879</v>
+        <v>0.0350415613609083</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535">
-        <v>35998.01557637163</v>
+        <v>11174.45003081409</v>
       </c>
       <c r="B535">
-        <v>0.07790270329597049</v>
+        <v>0.07533711387742115</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536">
-        <v>34729.11501363822</v>
+        <v>10794.58880976883</v>
       </c>
       <c r="B536">
-        <v>0.1104058777056925</v>
+        <v>0.1067698530287156</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537">
-        <v>33575.40902679571</v>
+        <v>10449.21252280025</v>
       </c>
       <c r="B537">
-        <v>0.1399583170450714</v>
+        <v>0.1353490344135742</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538">
-        <v>36190.45485986181</v>
+        <v>11232.05913222877</v>
       </c>
       <c r="B538">
-        <v>0.07297332759998265</v>
+        <v>0.070570078557192</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539">
-        <v>36608.93001844891</v>
+        <v>11357.3348940864</v>
       </c>
       <c r="B539">
-        <v>0.06225399192848435</v>
+        <v>0.06020376547681205</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540">
-        <v>37241.8300073237</v>
+        <v>11546.80140520183</v>
       </c>
       <c r="B540">
-        <v>0.04604211581583229</v>
+        <v>0.04452579917793664</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541">
-        <v>36768.85699228354</v>
+        <v>11405.2110298082</v>
       </c>
       <c r="B541">
-        <v>0.05815742638502785</v>
+        <v>0.05624211316185757</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542">
-        <v>34384.02728728362</v>
+        <v>10691.28249172417</v>
       </c>
       <c r="B542">
-        <v>0.1192453777309712</v>
+        <v>0.1153182395653651</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543">
-        <v>36042.75720224687</v>
+        <v>11187.8439949557</v>
       </c>
       <c r="B543">
-        <v>0.07675663644730846</v>
+        <v>0.07422879073796917</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544">
-        <v>39326.62505453238</v>
+        <v>12170.91082363872</v>
       </c>
       <c r="B544">
         <v>0</v>
@@ -4852,7 +4837,7 @@
     </row>
     <row r="545" spans="1:3">
       <c r="A545">
-        <v>41393.9170226694</v>
+        <v>12789.78047689346</v>
       </c>
       <c r="B545">
         <v>0</v>
@@ -4860,7 +4845,7 @@
     </row>
     <row r="546" spans="1:3">
       <c r="A546">
-        <v>42665.13841017494</v>
+        <v>13170.33646580128</v>
       </c>
       <c r="B546">
         <v>0</v>
@@ -4868,7 +4853,7 @@
     </row>
     <row r="547" spans="1:3">
       <c r="A547">
-        <v>42801.37959083328</v>
+        <v>13211.1219637051</v>
       </c>
       <c r="B547">
         <v>0</v>
@@ -4876,7 +4861,7 @@
     </row>
     <row r="548" spans="1:3">
       <c r="A548">
-        <v>43039.49252128014</v>
+        <v>13282.404041405</v>
       </c>
       <c r="B548">
         <v>0</v>
@@ -4884,7 +4869,7 @@
     </row>
     <row r="549" spans="1:3">
       <c r="A549">
-        <v>45707.79966797838</v>
+        <v>14081.19508984236</v>
       </c>
       <c r="B549">
         <v>0</v>
@@ -4892,7 +4877,7 @@
     </row>
     <row r="550" spans="1:3">
       <c r="A550">
-        <v>45781.95532550821</v>
+        <v>14103.39451148657</v>
       </c>
       <c r="B550">
         <v>0</v>
@@ -4900,7 +4885,7 @@
     </row>
     <row r="551" spans="1:3">
       <c r="A551">
-        <v>53236.18149750837</v>
+        <v>16334.9101548746</v>
       </c>
       <c r="B551">
         <v>0</v>
@@ -4908,15 +4893,15 @@
     </row>
     <row r="552" spans="1:3">
       <c r="A552">
-        <v>50263.19112252602</v>
+        <v>15444.90837919263</v>
       </c>
       <c r="B552">
-        <v>0.05584529715230413</v>
+        <v>0.05448464468085112</v>
       </c>
     </row>
     <row r="553" spans="1:3">
       <c r="A553">
-        <v>54679.40230023273</v>
+        <v>16766.95631551294</v>
       </c>
       <c r="B553">
         <v>0</v>
@@ -4927,23 +4912,23 @@
     </row>
     <row r="554" spans="1:3">
       <c r="A554">
-        <v>54144.81438657054</v>
+        <v>16606.92075117973</v>
       </c>
       <c r="B554">
-        <v>0.009776769517832129</v>
+        <v>0.009544699784607813</v>
       </c>
     </row>
     <row r="555" spans="1:3">
       <c r="A555">
-        <v>53986.89679481991</v>
+        <v>16559.64614906458</v>
       </c>
       <c r="B555">
-        <v>0.01266483312327404</v>
+        <v>0.01236420985104814</v>
       </c>
     </row>
     <row r="556" spans="1:3">
       <c r="A556">
-        <v>60655.41535326251</v>
+        <v>18555.95041164307</v>
       </c>
       <c r="B556">
         <v>0</v>
@@ -4954,7 +4939,7 @@
     </row>
     <row r="557" spans="1:3">
       <c r="A557">
-        <v>60867.36248394259</v>
+        <v>18619.3994305983</v>
       </c>
       <c r="B557">
         <v>0</v>
@@ -4962,7 +4947,7 @@
     </row>
     <row r="558" spans="1:3">
       <c r="A558">
-        <v>61206.88115363725</v>
+        <v>18721.03858202247</v>
       </c>
       <c r="B558">
         <v>0</v>
@@ -4970,7 +4955,7 @@
     </row>
     <row r="559" spans="1:3">
       <c r="A559">
-        <v>64730.10078617343</v>
+        <v>19775.75835355667</v>
       </c>
       <c r="B559">
         <v>0</v>
@@ -4978,2061 +4963,2079 @@
     </row>
     <row r="560" spans="1:3">
       <c r="A560">
-        <v>59307.71748345502</v>
+        <v>18152.50023322849</v>
       </c>
       <c r="B560">
-        <v>0.08376911571064072</v>
+        <v>0.082083229947854</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561">
-        <v>57677.47419303068</v>
+        <v>17664.46655660419</v>
       </c>
       <c r="B561">
-        <v>0.1089543582890452</v>
+        <v>0.1067616098056118</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562">
-        <v>63206.06175937661</v>
+        <v>19319.51824882178</v>
       </c>
       <c r="B562">
-        <v>0.02354451805708235</v>
+        <v>0.02307067555024223</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563">
-        <v>56574.69485315093</v>
+        <v>17334.33579703717</v>
       </c>
       <c r="B563">
-        <v>0.1259909351904566</v>
+        <v>0.1234553190260043</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564">
-        <v>55574.87615897664</v>
+        <v>17035.02759184984</v>
       </c>
       <c r="B564">
-        <v>0.1414368974557874</v>
+        <v>0.1385904253433552</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565">
-        <v>50936.65479128965</v>
+        <v>15646.51813417224</v>
       </c>
       <c r="B565">
-        <v>0.2130916811090475</v>
+        <v>0.2088031288388891</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566">
-        <v>52369.66027384409</v>
+        <v>16075.50621121673</v>
       </c>
       <c r="B566">
-        <v>0.1909535187216883</v>
+        <v>0.1871105055080964</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567">
-        <v>31973.28764529326</v>
+        <v>14035.72898367683</v>
       </c>
       <c r="B567">
-        <v>0.5060522499275505</v>
+        <v>0.2902558408763879</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568">
-        <v>32021.62170360782</v>
+        <v>14035.72898367683</v>
       </c>
       <c r="B568">
-        <v>0.5053055485053756</v>
+        <v>0.2902558408763879</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569">
-        <v>31911.42672819602</v>
+        <v>14035.72898367683</v>
       </c>
       <c r="B569">
-        <v>0.5070079245881166</v>
+        <v>0.2902558408763879</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570">
-        <v>31867.15022992301</v>
+        <v>14035.72898367683</v>
       </c>
       <c r="B570">
-        <v>0.5076919417259746</v>
+        <v>0.2902558408763879</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571">
-        <v>31802.58457601773</v>
+        <v>14035.72898367683</v>
       </c>
       <c r="B571">
-        <v>0.5086894012250499</v>
+        <v>0.2902558408763879</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572">
-        <v>31982.16320119011</v>
+        <v>14035.72898367683</v>
       </c>
       <c r="B572">
-        <v>0.5059151335660887</v>
+        <v>0.2902558408763879</v>
       </c>
     </row>
     <row r="573" spans="1:2">
       <c r="A573">
-        <v>32010.79517775866</v>
+        <v>14035.72898367683</v>
       </c>
       <c r="B573">
-        <v>0.5054728049396723</v>
+        <v>0.2902558408763879</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574">
-        <v>32135.30197407427</v>
+        <v>14035.72898367683</v>
       </c>
       <c r="B574">
-        <v>0.503549328924597</v>
+        <v>0.2902558408763879</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575">
-        <v>32011.15536528202</v>
+        <v>14035.72898367683</v>
       </c>
       <c r="B575">
-        <v>0.5054672404879104</v>
+        <v>0.2902558408763879</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576">
-        <v>31725.0648270187</v>
+        <v>14035.72898367683</v>
       </c>
       <c r="B576">
-        <v>0.5098869854719076</v>
+        <v>0.2902558408763879</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577">
-        <v>31609.49489738914</v>
+        <v>14035.72898367683</v>
       </c>
       <c r="B577">
-        <v>0.5116723979496562</v>
+        <v>0.2902558408763879</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578">
-        <v>31702.42915143939</v>
+        <v>14035.72898367683</v>
       </c>
       <c r="B578">
-        <v>0.5102366786641688</v>
+        <v>0.2902558408763879</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579">
-        <v>32045.82986450231</v>
+        <v>14035.72898367683</v>
       </c>
       <c r="B579">
-        <v>0.5049315623598194</v>
+        <v>0.2902558408763879</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580">
-        <v>31955.36624153804</v>
+        <v>14022.14208090261</v>
       </c>
       <c r="B580">
-        <v>0.506329113450665</v>
+        <v>0.290942889258114</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581">
-        <v>32045.42293726754</v>
+        <v>14048.25676139895</v>
       </c>
       <c r="B581">
-        <v>0.5049378488823155</v>
+        <v>0.2896223492297899</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582">
-        <v>32262.38294166618</v>
+        <v>14131.3738705878</v>
       </c>
       <c r="B582">
-        <v>0.5015860851469964</v>
+        <v>0.2854193696169293</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583">
-        <v>31991.32346633726</v>
+        <v>14008.96557206915</v>
       </c>
       <c r="B583">
-        <v>0.5057736187988338</v>
+        <v>0.2916091852654727</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584">
-        <v>31891.67246136718</v>
+        <v>13952.19601047561</v>
       </c>
       <c r="B584">
-        <v>0.5073131035788631</v>
+        <v>0.294479849468513</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585">
-        <v>32027.47056458049</v>
+        <v>14044.2530624016</v>
       </c>
       <c r="B585">
-        <v>0.5052151908371249</v>
+        <v>0.2898248041205591</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586">
-        <v>31811.7495766727</v>
+        <v>13890.13311795656</v>
       </c>
       <c r="B586">
-        <v>0.5085478133000559</v>
+        <v>0.2976181813296472</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587">
-        <v>31659.45510198154</v>
+        <v>13764.74071052159</v>
       </c>
       <c r="B587">
-        <v>0.5109005745786801</v>
+        <v>0.3039588942971689</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588">
-        <v>31844.30189256349</v>
+        <v>13936.12253504522</v>
       </c>
       <c r="B588">
-        <v>0.5080449202797235</v>
+        <v>0.2952926362725907</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589">
-        <v>31567.69570980384</v>
+        <v>13676.98605274124</v>
       </c>
       <c r="B589">
-        <v>0.5123181437012869</v>
+        <v>0.3083963806484604</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590">
-        <v>31335.28007748141</v>
+        <v>13459.27567628486</v>
       </c>
       <c r="B590">
-        <v>0.5159086777727567</v>
+        <v>0.3194053327485059</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591">
-        <v>31368.49076218321</v>
+        <v>13490.38507540984</v>
       </c>
       <c r="B591">
-        <v>0.515395613768554</v>
+        <v>0.3178322249784373</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592">
-        <v>31672.05605985738</v>
+        <v>13748.09352782829</v>
       </c>
       <c r="B592">
-        <v>0.5107059053641603</v>
+        <v>0.3048006917339943</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593">
-        <v>31842.37364555277</v>
+        <v>13880.93573001487</v>
       </c>
       <c r="B593">
-        <v>0.5080747093112141</v>
+        <v>0.2980832652863408</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594">
-        <v>31745.75757346965</v>
+        <v>13811.7066283272</v>
       </c>
       <c r="B594">
-        <v>0.509567308131696</v>
+        <v>0.3015839705665112</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595">
-        <v>31292.088444098</v>
+        <v>13485.08523059351</v>
       </c>
       <c r="B595">
-        <v>0.5165759350898137</v>
+        <v>0.3181002220241927</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596">
-        <v>31306.01024500943</v>
+        <v>13495.10830198688</v>
       </c>
       <c r="B596">
-        <v>0.5163608604839913</v>
+        <v>0.3175933857646585</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597">
-        <v>30916.99448475003</v>
+        <v>13236.28457402153</v>
       </c>
       <c r="B597">
-        <v>0.5223706728515707</v>
+        <v>0.3306813151041068</v>
       </c>
     </row>
     <row r="598" spans="1:2">
       <c r="A598">
-        <v>30723.22191212832</v>
+        <v>13107.19773319823</v>
       </c>
       <c r="B598">
-        <v>0.5253642194437783</v>
+        <v>0.3372088443404294</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599">
-        <v>30943.17641521751</v>
+        <v>13253.7263752268</v>
       </c>
       <c r="B599">
-        <v>0.521966194407238</v>
+        <v>0.3297993362240331</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600">
-        <v>29864.47718542522</v>
+        <v>12588.06259666843</v>
       </c>
       <c r="B600">
-        <v>0.5386307633896907</v>
+        <v>0.3634599305060549</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601">
-        <v>29845.77355774945</v>
+        <v>12576.51526917977</v>
       </c>
       <c r="B601">
-        <v>0.5389197113049358</v>
+        <v>0.364043843764005</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602">
-        <v>30113.4108277083</v>
+        <v>12741.75033790333</v>
       </c>
       <c r="B602">
-        <v>0.5347850464935375</v>
+        <v>0.3556884084998073</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603">
-        <v>30182.73528368725</v>
+        <v>12781.50651683373</v>
       </c>
       <c r="B603">
-        <v>0.5337140693880338</v>
+        <v>0.3536780593531588</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604">
-        <v>29547.58283156289</v>
+        <v>12445.49463753862</v>
       </c>
       <c r="B604">
-        <v>0.5435263892270294</v>
+        <v>0.3706691589250586</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605">
-        <v>29620.70701620115</v>
+        <v>12484.20952317578</v>
       </c>
       <c r="B605">
-        <v>0.5423967110131824</v>
+        <v>0.3687114648156844</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606">
-        <v>30197.54944868756</v>
+        <v>12768.04368627531</v>
       </c>
       <c r="B606">
-        <v>0.5334852088606996</v>
+        <v>0.3543588337799962</v>
       </c>
     </row>
     <row r="607" spans="1:2">
       <c r="A607">
-        <v>30608.88548326665</v>
+        <v>12957.95419183833</v>
       </c>
       <c r="B607">
-        <v>0.5271305758602369</v>
+        <v>0.3447556366652386</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608">
-        <v>30953.90117022463</v>
+        <v>13108.42522901756</v>
       </c>
       <c r="B608">
-        <v>0.5218005102065824</v>
+        <v>0.3371467736072932</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609">
-        <v>31449.77467157587</v>
+        <v>13313.62096694572</v>
       </c>
       <c r="B609">
-        <v>0.5141398778990678</v>
+        <v>0.3267706487447416</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610">
-        <v>30651.01913611859</v>
+        <v>12961.55213636247</v>
       </c>
       <c r="B610">
-        <v>0.5264796630338979</v>
+        <v>0.3445736995450627</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611">
-        <v>30876.06153345376</v>
+        <v>13071.38103675301</v>
       </c>
       <c r="B611">
-        <v>0.523003036323883</v>
+        <v>0.3390199858301708</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612">
-        <v>31235.94513656227</v>
+        <v>13256.10890722983</v>
       </c>
       <c r="B612">
-        <v>0.517443279754102</v>
+        <v>0.3296788588213245</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613">
-        <v>31730.00812139995</v>
+        <v>13520.10938884886</v>
       </c>
       <c r="B613">
-        <v>0.5098106176875042</v>
+        <v>0.3163291567821331</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614">
-        <v>31050.65995735789</v>
+        <v>13144.04935318282</v>
       </c>
       <c r="B614">
-        <v>0.5203057066150835</v>
+        <v>0.3353453699125093</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615">
-        <v>31728.49164185787</v>
+        <v>13546.8632854201</v>
       </c>
       <c r="B615">
-        <v>0.5098340454208719</v>
+        <v>0.3149762935395247</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616">
-        <v>31694.82263118544</v>
+        <v>13526.1137851271</v>
       </c>
       <c r="B616">
-        <v>0.5103541899944707</v>
+        <v>0.3160255327101312</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617">
-        <v>30574.67998177328</v>
+        <v>12799.03640854722</v>
       </c>
       <c r="B617">
-        <v>0.527659008553496</v>
+        <v>0.3527916260037983</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618">
-        <v>30746.19137406864</v>
+        <v>12916.97388186234</v>
       </c>
       <c r="B618">
-        <v>0.5250093696650611</v>
+        <v>0.3468278863986414</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619">
-        <v>30534.26642798656</v>
+        <v>12767.89533827635</v>
       </c>
       <c r="B619">
-        <v>0.5282833479766683</v>
+        <v>0.3543663352874636</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620">
-        <v>30707.60356598371</v>
+        <v>12889.70898292395</v>
       </c>
       <c r="B620">
-        <v>0.5256055035751936</v>
+        <v>0.3482065894779842</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621">
-        <v>30047.80395359045</v>
+        <v>12444.08242235514</v>
       </c>
       <c r="B621">
-        <v>0.5357985915571328</v>
+        <v>0.3707405703550646</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622">
-        <v>29494.13161260133</v>
+        <v>12069.8413558993</v>
       </c>
       <c r="B622">
-        <v>0.5443521444523785</v>
+        <v>0.3896648037404575</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623">
-        <v>29823.74377259856</v>
+        <v>12292.63450835081</v>
       </c>
       <c r="B623">
-        <v>0.5392600442394334</v>
+        <v>0.3783988311052566</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624">
-        <v>29350.06510336078</v>
+        <v>11985.3581319842</v>
       </c>
       <c r="B624">
-        <v>0.5465777938410061</v>
+        <v>0.3939368636233043</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625">
-        <v>29077.42560006059</v>
+        <v>11808.32713244292</v>
       </c>
       <c r="B625">
-        <v>0.5507897369708463</v>
+        <v>0.4028887832602795</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626">
-        <v>29224.49233377851</v>
+        <v>11903.82089088293</v>
       </c>
       <c r="B626">
-        <v>0.5485177378246726</v>
+        <v>0.3980599541083071</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627">
-        <v>29171.8352709195</v>
+        <v>11871.28028444382</v>
       </c>
       <c r="B627">
-        <v>0.5493312243204369</v>
+        <v>0.3997054336827105</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628">
-        <v>28693.2318912974</v>
+        <v>11572.84490619036</v>
       </c>
       <c r="B628">
-        <v>0.5567250546066449</v>
+        <v>0.4147964037945993</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629">
-        <v>28478.58024505585</v>
+        <v>11438.99786714646</v>
       </c>
       <c r="B629">
-        <v>0.560041157063377</v>
+        <v>0.4215646417883565</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630">
-        <v>29853.6038000217</v>
+        <v>12296.40024290415</v>
       </c>
       <c r="B630">
-        <v>0.538798743746147</v>
+        <v>0.3782084093532302</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631">
-        <v>30051.07500492066</v>
+        <v>12415.3490260038</v>
       </c>
       <c r="B631">
-        <v>0.5357480578596647</v>
+        <v>0.3721935308857119</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632">
-        <v>30754.13227261895</v>
+        <v>12823.39936230513</v>
       </c>
       <c r="B632">
-        <v>0.5248866926036343</v>
+        <v>0.351559665473014</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633">
-        <v>31194.66221403711</v>
+        <v>13084.63738909634</v>
       </c>
       <c r="B633">
-        <v>0.5180810498490618</v>
+        <v>0.338349652379168</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634">
-        <v>31232.01517702312</v>
+        <v>13107.05425355146</v>
       </c>
       <c r="B634">
-        <v>0.5175039927684711</v>
+        <v>0.3372160996701219</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635">
-        <v>31527.96249729307</v>
+        <v>13289.52908827911</v>
       </c>
       <c r="B635">
-        <v>0.5129319726931809</v>
+        <v>0.3279889018319754</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636">
-        <v>32096.25786056758</v>
+        <v>13646.20109223107</v>
       </c>
       <c r="B636">
-        <v>0.5041525121891444</v>
+        <v>0.30995308254377</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637">
-        <v>32107.29998026038</v>
+        <v>13653.06483140472</v>
       </c>
       <c r="B637">
-        <v>0.5039819250966064</v>
+        <v>0.3096060041131511</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638">
-        <v>32795.33027061401</v>
+        <v>14098.02880871511</v>
       </c>
       <c r="B638">
-        <v>0.4933527080554275</v>
+        <v>0.2871055280578112</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639">
-        <v>33473.47021163515</v>
+        <v>14542.37771722824</v>
       </c>
       <c r="B639">
-        <v>0.4828762846792106</v>
+        <v>0.2646361541623109</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640">
-        <v>34082.52424079306</v>
+        <v>14946.23890673385</v>
       </c>
       <c r="B640">
-        <v>0.4734671531969372</v>
+        <v>0.2442141211719566</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641">
-        <v>34303.74704955153</v>
+        <v>15090.12962871061</v>
       </c>
       <c r="B641">
-        <v>0.4700495344064267</v>
+        <v>0.2369380046557534</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642">
-        <v>34774.30788167767</v>
+        <v>15389.3611380981</v>
       </c>
       <c r="B642">
-        <v>0.4627799515321381</v>
+        <v>0.2218067766119158</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643">
-        <v>33855.3923331726</v>
+        <v>14817.70369886623</v>
       </c>
       <c r="B643">
-        <v>0.4769760602565872</v>
+        <v>0.250713756006163</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644">
-        <v>35879.5100738037</v>
+        <v>16077.5833413528</v>
       </c>
       <c r="B644">
-        <v>0.4457059445600664</v>
+        <v>0.1870054713496616</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645">
-        <v>36856.57065374235</v>
+        <v>16674.46782093511</v>
       </c>
       <c r="B645">
-        <v>0.430611567012807</v>
+        <v>0.1568228371916668</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646">
-        <v>37485.10415346007</v>
+        <v>17051.6621105598</v>
       </c>
       <c r="B646">
-        <v>0.4209015018022803</v>
+        <v>0.137749268285681</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647">
-        <v>40147.70298016713</v>
+        <v>18620.99112748371</v>
       </c>
       <c r="B647">
-        <v>0.3797676429890123</v>
+        <v>0.0583930692025918</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648">
-        <v>38652.7091492769</v>
+        <v>17754.01458912359</v>
       </c>
       <c r="B648">
-        <v>0.4028634486919686</v>
+        <v>0.10223343794396</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649">
-        <v>40149.29348260729</v>
+        <v>18622.21636628376</v>
       </c>
       <c r="B649">
-        <v>0.3797430716934197</v>
+        <v>0.0583311126000613</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650">
-        <v>39955.99138116829</v>
+        <v>18512.07714437709</v>
       </c>
       <c r="B650">
-        <v>0.3827293500877257</v>
+        <v>0.06390051833093457</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651">
-        <v>40148.59595653407</v>
+        <v>18622.09975975023</v>
       </c>
       <c r="B651">
-        <v>0.3797538476085619</v>
+        <v>0.05833700903808625</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652">
-        <v>38959.2273169227</v>
+        <v>17953.20987551675</v>
       </c>
       <c r="B652">
-        <v>0.3981281220985751</v>
+        <v>0.09216073767973276</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653">
-        <v>41827.76033426003</v>
+        <v>19567.0965114163</v>
       </c>
       <c r="B653">
-        <v>0.3538128347361605</v>
+        <v>0.01055139521882598</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654">
-        <v>41204.39221638487</v>
+        <v>19221.61397772298</v>
       </c>
       <c r="B654">
-        <v>0.363443101185681</v>
+        <v>0.02802139700164907</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655">
-        <v>41666.91480743931</v>
+        <v>19478.15705346332</v>
       </c>
       <c r="B655">
-        <v>0.356297699194383</v>
+        <v>0.01504879331415521</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656">
-        <v>39951.88923171208</v>
+        <v>18540.51869618164</v>
       </c>
       <c r="B656">
-        <v>0.3827927232233517</v>
+        <v>0.06246231549208225</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657">
-        <v>38512.35885503934</v>
+        <v>17753.25403606163</v>
       </c>
       <c r="B657">
-        <v>0.4050316871549547</v>
+        <v>0.1022718968009285</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658">
-        <v>38542.57846573041</v>
+        <v>17769.7808366941</v>
       </c>
       <c r="B658">
-        <v>0.4045648315449056</v>
+        <v>0.1014361867190694</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659">
-        <v>40380.69163879142</v>
+        <v>18760.036586933</v>
       </c>
       <c r="B659">
-        <v>0.3761682563698884</v>
+        <v>0.05136196288730432</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660">
-        <v>41487.67638951068</v>
+        <v>19348.10422026382</v>
       </c>
       <c r="B660">
-        <v>0.3590667110721911</v>
+        <v>0.02162516984922302</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661">
-        <v>40802.78176608316</v>
+        <v>18989.59830313192</v>
       </c>
       <c r="B661">
-        <v>0.3696474859375041</v>
+        <v>0.03975372455354476</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662">
-        <v>40965.21459391348</v>
+        <v>19074.68452429042</v>
       </c>
       <c r="B662">
-        <v>0.3671380996418316</v>
+        <v>0.03545117293265077</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663">
-        <v>41905.88272045486</v>
+        <v>19561.02252929674</v>
       </c>
       <c r="B663">
-        <v>0.3526059404899599</v>
+        <v>0.01085853803534753</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664">
-        <v>40180.30437761955</v>
+        <v>18681.20012789236</v>
       </c>
       <c r="B664">
-        <v>0.3792639917192558</v>
+        <v>0.05534848303137063</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665">
-        <v>40824.3758071702</v>
+        <v>19009.68769442306</v>
       </c>
       <c r="B665">
-        <v>0.3693138847098717</v>
+        <v>0.03873786508904398</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666">
-        <v>39272.84009384934</v>
+        <v>18021.21956449237</v>
       </c>
       <c r="B666">
-        <v>0.3932831925662912</v>
+        <v>0.08872169439452893</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667">
-        <v>41364.36876672332</v>
+        <v>18077.21935178723</v>
       </c>
       <c r="B667">
-        <v>0.3609716613393735</v>
+        <v>0.08588995533837307</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668">
-        <v>41023.27420415633</v>
+        <v>18063.20124558821</v>
       </c>
       <c r="B668">
-        <v>0.3662411504707708</v>
+        <v>0.08659880836683376</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669">
-        <v>40776.3074724292</v>
+        <v>18049.70204940602</v>
       </c>
       <c r="B669">
-        <v>0.3700564810314777</v>
+        <v>0.08728142169274766</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670">
-        <v>40848.83367525689</v>
+        <v>18053.96121236994</v>
       </c>
       <c r="B670">
-        <v>0.3689360408970297</v>
+        <v>0.0870660487655619</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671">
-        <v>43224.75878715448</v>
+        <v>18207.72236574008</v>
       </c>
       <c r="B671">
-        <v>0.3322309364241336</v>
+        <v>0.07929081453073983</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672">
-        <v>48016.46001320307</v>
+        <v>18570.97168314066</v>
       </c>
       <c r="B672">
-        <v>0.2582050787806042</v>
+        <v>0.06092240049036268</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673">
-        <v>47516.52432690204</v>
+        <v>18527.66882859194</v>
       </c>
       <c r="B673">
-        <v>0.265928466821548</v>
+        <v>0.06311209424442965</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674">
-        <v>49371.64697701873</v>
+        <v>18706.0845082575</v>
       </c>
       <c r="B674">
-        <v>0.2372691162630681</v>
+        <v>0.05409015554171093</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675">
-        <v>48723.92107336225</v>
+        <v>18637.20175178945</v>
       </c>
       <c r="B675">
-        <v>0.2472756803775926</v>
+        <v>0.05757334719669338</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676">
-        <v>49521.05173473062</v>
+        <v>18729.16776138508</v>
       </c>
       <c r="B676">
-        <v>0.2349609975378181</v>
+        <v>0.0529229055827013</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677">
-        <v>49228.14807545187</v>
+        <v>18692.14751208329</v>
       </c>
       <c r="B677">
-        <v>0.2394859968151452</v>
+        <v>0.05479490708271617</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678">
-        <v>43108.92132543565</v>
+        <v>17865.26164035463</v>
       </c>
       <c r="B678">
-        <v>0.334020481941782</v>
+        <v>0.09660801265092533</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679">
-        <v>43909.94009648801</v>
+        <v>17982.18999300113</v>
       </c>
       <c r="B679">
-        <v>0.3216457326161413</v>
+        <v>0.09069530121119085</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680">
-        <v>42989.07103477956</v>
+        <v>17836.18313874098</v>
       </c>
       <c r="B680">
-        <v>0.335872020703509</v>
+        <v>0.09807842410588818</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681">
-        <v>40302.80463515759</v>
+        <v>17379.99556861626</v>
       </c>
       <c r="B681">
-        <v>0.3773715142466392</v>
+        <v>0.1211464431405499</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682">
-        <v>41028.23105978013</v>
+        <v>17503.05502049434</v>
       </c>
       <c r="B682">
-        <v>0.3661645731819422</v>
+        <v>0.1149237006455225</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683">
-        <v>42731.47090314866</v>
+        <v>17791.98819748866</v>
       </c>
       <c r="B683">
-        <v>0.3398516241415114</v>
+        <v>0.1003132279734412</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684">
-        <v>41253.75946556569</v>
+        <v>17541.31307266461</v>
       </c>
       <c r="B684">
-        <v>0.3626804382424561</v>
+        <v>0.1129891072162194</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685">
-        <v>43106.43517385961</v>
+        <v>17855.59616111028</v>
       </c>
       <c r="B685">
-        <v>0.3340588899087997</v>
+        <v>0.09709676656223176</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686">
-        <v>45334.07144772054</v>
+        <v>18233.48658464658</v>
       </c>
       <c r="B686">
-        <v>0.2996446645823228</v>
+        <v>0.07798799627993636</v>
       </c>
     </row>
     <row r="687" spans="1:2">
       <c r="A687">
-        <v>44767.52529989721</v>
+        <v>18137.37916968572</v>
       </c>
       <c r="B687">
-        <v>0.3083971018710401</v>
+        <v>0.0828478561772219</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688">
-        <v>42676.77186333181</v>
+        <v>17782.70919464337</v>
       </c>
       <c r="B688">
-        <v>0.3406966566557901</v>
+        <v>0.1007824389477763</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689">
-        <v>43122.22279213907</v>
+        <v>17858.27433161246</v>
       </c>
       <c r="B689">
-        <v>0.3338149907322542</v>
+        <v>0.09696133961908737</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690">
-        <v>41791.70931254865</v>
+        <v>17616.66389616239</v>
       </c>
       <c r="B690">
-        <v>0.3543697784342782</v>
+        <v>0.109178845068461</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691">
-        <v>37423.70772491933</v>
+        <v>16772.36268536448</v>
       </c>
       <c r="B691">
-        <v>0.4218500006891204</v>
+        <v>0.1518725914069452</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692">
-        <v>34787.11820665277</v>
+        <v>16264.69104133248</v>
       </c>
       <c r="B692">
-        <v>0.4625820478548766</v>
+        <v>0.1775440035953276</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693">
-        <v>36229.72234997428</v>
+        <v>17011.66781536936</v>
       </c>
       <c r="B693">
-        <v>0.4402955980301351</v>
+        <v>0.1397716582479474</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694">
-        <v>36591.94442160881</v>
+        <v>17193.18873293399</v>
       </c>
       <c r="B694">
-        <v>0.4346997150138073</v>
+        <v>0.1305926971017123</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695">
-        <v>35481.44538266695</v>
+        <v>16655.2797072947</v>
       </c>
       <c r="B695">
-        <v>0.4518555517181289</v>
+        <v>0.1577931217844174</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696">
-        <v>35447.74392299092</v>
+        <v>16638.94815714359</v>
       </c>
       <c r="B696">
-        <v>0.4523761975887007</v>
+        <v>0.1586189586428139</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697">
-        <v>36129.90270559228</v>
+        <v>16969.51871628761</v>
       </c>
       <c r="B697">
-        <v>0.4418376880805082</v>
+        <v>0.1419030100943949</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698">
-        <v>35444.74912808416</v>
+        <v>16648.21871144771</v>
       </c>
       <c r="B698">
-        <v>0.4524224634660962</v>
+        <v>0.1581501748855297</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699">
-        <v>34827.13284925697</v>
+        <v>16358.38147340416</v>
       </c>
       <c r="B699">
-        <v>0.4619638711161074</v>
+        <v>0.1728063631773643</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700">
-        <v>35060.19763920781</v>
+        <v>16467.75497491359</v>
       </c>
       <c r="B700">
-        <v>0.4583633083621462</v>
+        <v>0.1672756775999004</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701">
-        <v>35854.26044867728</v>
+        <v>16828.39471150636</v>
       </c>
       <c r="B701">
-        <v>0.4460960200399399</v>
+        <v>0.1490392221302719</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702">
-        <v>37541.39666868273</v>
+        <v>17571.24010510444</v>
       </c>
       <c r="B702">
-        <v>0.4200318520637665</v>
+        <v>0.1114757881361222</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703">
-        <v>37977.31294426072</v>
+        <v>17769.35600110814</v>
       </c>
       <c r="B703">
-        <v>0.4132974847403171</v>
+        <v>0.1014576693635462</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704">
-        <v>38149.20158327359</v>
+        <v>17849.69794375613</v>
       </c>
       <c r="B704">
-        <v>0.4106420178566693</v>
+        <v>0.09739502148872803</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705">
-        <v>37963.43242650313</v>
+        <v>17759.90429591396</v>
       </c>
       <c r="B705">
-        <v>0.4135119215724711</v>
+        <v>0.1019356133708098</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706">
-        <v>38723.87093745751</v>
+        <v>18144.76786802774</v>
       </c>
       <c r="B706">
-        <v>0.4017640870763318</v>
+        <v>0.08247423215684657</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707">
-        <v>39083.30122478456</v>
+        <v>18330.79383919769</v>
       </c>
       <c r="B707">
-        <v>0.3962113336747207</v>
+        <v>0.07306746414096965</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708">
-        <v>39160.50165125865</v>
+        <v>18371.40488099676</v>
       </c>
       <c r="B708">
-        <v>0.3950186825659404</v>
+        <v>0.07101388717704182</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709">
-        <v>39006.32808276529</v>
+        <v>18288.02464674907</v>
       </c>
       <c r="B709">
-        <v>0.3974004735197759</v>
+        <v>0.07523017222447159</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710">
-        <v>39080.13803991193</v>
+        <v>18328.9623438819</v>
       </c>
       <c r="B710">
-        <v>0.3962602009688269</v>
+        <v>0.0731600772930443</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711">
-        <v>38043.41702152676</v>
+        <v>17737.03976404577</v>
       </c>
       <c r="B711">
-        <v>0.4122762585030153</v>
+        <v>0.1030918032604418</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712">
-        <v>38868.65496815628</v>
+        <v>18226.08322291794</v>
       </c>
       <c r="B712">
-        <v>0.3995273528685936</v>
+        <v>0.07836236178320943</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713">
-        <v>38534.21399377022</v>
+        <v>18024.60974412232</v>
       </c>
       <c r="B713">
-        <v>0.4046940522916463</v>
+        <v>0.08855026331363969</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714">
-        <v>39298.61033768687</v>
+        <v>18500.5870807968</v>
       </c>
       <c r="B714">
-        <v>0.3928850741712241</v>
+        <v>0.06448153592706762</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715">
-        <v>40532.2331639726</v>
+        <v>19278.82791641137</v>
       </c>
       <c r="B715">
-        <v>0.3738271272299576</v>
+        <v>0.02512826199941576</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716">
-        <v>41067.95340430612</v>
+        <v>19620.45204300349</v>
       </c>
       <c r="B716">
-        <v>0.3655509120869718</v>
+        <v>0.007853368137725414</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717">
-        <v>40794.81443127892</v>
+        <v>19444.22459838482</v>
       </c>
       <c r="B717">
-        <v>0.3697705714063582</v>
+        <v>0.01676465444432496</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718">
-        <v>40912.83448150656</v>
+        <v>19521.99373990401</v>
       </c>
       <c r="B718">
-        <v>0.3679473075956389</v>
+        <v>0.01283210530366463</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719">
-        <v>40187.25915796838</v>
+        <v>19036.24772433921</v>
       </c>
       <c r="B719">
-        <v>0.3791565489644267</v>
+        <v>0.03739480509400839</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720">
-        <v>41127.08379257999</v>
+        <v>19682.15732251092</v>
       </c>
       <c r="B720">
-        <v>0.3646374207196527</v>
-      </c>
-    </row>
-    <row r="721" spans="1:2">
+        <v>0.004733119679777853</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3">
       <c r="A721">
-        <v>43184.67439574871</v>
+        <v>21108.51886729476</v>
       </c>
       <c r="B721">
-        <v>0.3328501906956228</v>
-      </c>
-    </row>
-    <row r="722" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C721" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3">
       <c r="A722">
-        <v>42387.8162224812</v>
+        <v>20565.34044961211</v>
       </c>
       <c r="B722">
-        <v>0.3451606639312481</v>
-      </c>
-    </row>
-    <row r="723" spans="1:2">
+        <v>0.02573266372205019</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3">
       <c r="A723">
-        <v>41792.99013625807</v>
+        <v>20159.61195627924</v>
       </c>
       <c r="B723">
-        <v>0.3543499912920698</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2">
+        <v>0.04495374199303648</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3">
       <c r="A724">
-        <v>43228.11034762091</v>
+        <v>21138.50171009776</v>
       </c>
       <c r="B724">
-        <v>0.3321791589600833</v>
-      </c>
-    </row>
-    <row r="725" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C724" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3">
       <c r="A725">
-        <v>42593.27517940182</v>
+        <v>20712.6863733935</v>
       </c>
       <c r="B725">
-        <v>0.3419865771551542</v>
-      </c>
-    </row>
-    <row r="726" spans="1:2">
+        <v>0.02014406425507653</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3">
       <c r="A726">
-        <v>43625.99298565168</v>
+        <v>21405.92268566367</v>
       </c>
       <c r="B726">
-        <v>0.3260323642973481</v>
-      </c>
-    </row>
-    <row r="727" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C726" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3">
       <c r="A727">
-        <v>42950.37311261625</v>
+        <v>20959.7181777167</v>
       </c>
       <c r="B727">
-        <v>0.3364698557399652</v>
-      </c>
-    </row>
-    <row r="728" spans="1:2">
+        <v>0.02084490888336277</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3">
       <c r="A728">
-        <v>41358.33416810364</v>
+        <v>19907.50792841193</v>
       </c>
       <c r="B728">
-        <v>0.3610648884245531</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2">
+        <v>0.07000000790693706</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3">
       <c r="A729">
-        <v>44124.3414205882</v>
+        <v>21735.61721603152</v>
       </c>
       <c r="B729">
-        <v>0.3183334973268988</v>
-      </c>
-    </row>
-    <row r="730" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C729" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3">
       <c r="A730">
-        <v>45148.79451414234</v>
+        <v>22402.89074818369</v>
       </c>
       <c r="B730">
-        <v>0.3025069640585778</v>
-      </c>
-    </row>
-    <row r="731" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3">
       <c r="A731">
-        <v>44395.37020321376</v>
+        <v>21919.72441295859</v>
       </c>
       <c r="B731">
-        <v>0.3141464378393681</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2">
+        <v>0.02156714241282798</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3">
       <c r="A732">
-        <v>44117.7845280338</v>
+        <v>21741.59342984435</v>
       </c>
       <c r="B732">
-        <v>0.3184347932074051</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2">
+        <v>0.02951839232590836</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3">
       <c r="A733">
-        <v>44369.93647228367</v>
+        <v>21903.40319792506</v>
       </c>
       <c r="B733">
-        <v>0.3145393575262092</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2">
+        <v>0.02229567406604138</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3">
       <c r="A734">
-        <v>46517.00208425901</v>
+        <v>23261.65306667563</v>
       </c>
       <c r="B734">
-        <v>0.2813698492773674</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C734" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3">
       <c r="A735">
-        <v>46624.85810145942</v>
+        <v>23329.24878935095</v>
       </c>
       <c r="B735">
-        <v>0.2797036072062064</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3">
       <c r="A736">
-        <v>46045.06175691096</v>
+        <v>22972.53482798811</v>
       </c>
       <c r="B736">
-        <v>0.288660743646697</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2">
+        <v>0.01529041781772533</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3">
       <c r="A737">
-        <v>45571.38147434799</v>
+        <v>22680.8587757754</v>
       </c>
       <c r="B737">
-        <v>0.2959785181721485</v>
-      </c>
-    </row>
-    <row r="738" spans="1:2">
+        <v>0.02779300865750645</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3">
       <c r="A738">
-        <v>45928.27200317589</v>
+        <v>22900.61970810172</v>
       </c>
       <c r="B738">
-        <v>0.2904650008982168</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2">
+        <v>0.01837303400205892</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3">
       <c r="A739">
-        <v>46709.58163316039</v>
+        <v>23375.65013090846</v>
       </c>
       <c r="B739">
-        <v>0.2783947334261262</v>
-      </c>
-    </row>
-    <row r="740" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C739" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3">
       <c r="A740">
-        <v>48344.99185558171</v>
+        <v>24356.90013746497</v>
       </c>
       <c r="B740">
-        <v>0.2531296681387468</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3">
       <c r="A741">
-        <v>47703.3338068263</v>
+        <v>23976.98625365969</v>
       </c>
       <c r="B741">
-        <v>0.2630424913996751</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2">
+        <v>0.01559779289076713</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3">
       <c r="A742">
-        <v>46825.70397306843</v>
+        <v>23456.95687155005</v>
       </c>
       <c r="B742">
-        <v>0.2766007868927873</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2">
+        <v>0.03694818555874668</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3">
       <c r="A743">
-        <v>47590.35434509678</v>
+        <v>23910.04158357855</v>
       </c>
       <c r="B743">
-        <v>0.2647878843522171</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2">
+        <v>0.01834628180780162</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3">
       <c r="A744">
-        <v>47130.47698272247</v>
+        <v>23641.16434554335</v>
       </c>
       <c r="B744">
-        <v>0.2718924208319833</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2">
+        <v>0.02938534000148463</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3">
       <c r="A745">
-        <v>46948.7465234496</v>
+        <v>23534.79731837985</v>
       </c>
       <c r="B745">
-        <v>0.2746999316664431</v>
-      </c>
-    </row>
-    <row r="746" spans="1:2">
+        <v>0.03375235824121103</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3">
       <c r="A746">
-        <v>46796.1925622322</v>
+        <v>23445.50732592818</v>
       </c>
       <c r="B746">
-        <v>0.2770567016909692</v>
-      </c>
-    </row>
-    <row r="747" spans="1:2">
+        <v>0.03741825956476763</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3">
       <c r="A747">
-        <v>46258.04087759036</v>
+        <v>23130.5265841889</v>
       </c>
       <c r="B747">
-        <v>0.2853704796413473</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2">
+        <v>0.05035014908936197</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3">
       <c r="A748">
-        <v>43220.47847784538</v>
+        <v>21866.80497410507</v>
       </c>
       <c r="B748">
-        <v>0.3322970619091417</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2">
+        <v>0.1022336647646601</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3">
       <c r="A749">
-        <v>43890.07782966871</v>
+        <v>21875.26451697559</v>
       </c>
       <c r="B749">
-        <v>0.3219525800731677</v>
-      </c>
-    </row>
-    <row r="750" spans="1:2">
+        <v>0.1018863486931247</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3">
       <c r="A750">
-        <v>41360.00289361406</v>
+        <v>21843.73097076626</v>
       </c>
       <c r="B750">
-        <v>0.36103910867927</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2">
+        <v>0.1031809939899961</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3">
       <c r="A751">
-        <v>43950.07091073919</v>
+        <v>21876.01895239563</v>
       </c>
       <c r="B751">
-        <v>0.3210257611691055</v>
-      </c>
-    </row>
-    <row r="752" spans="1:2">
+        <v>0.1018553744962534</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3">
       <c r="A752">
-        <v>44984.05699478078</v>
+        <v>21888.74624207229</v>
       </c>
       <c r="B752">
-        <v>0.3050519549880025</v>
+        <v>0.1013328412672777</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753">
-        <v>43610.68630154103</v>
+        <v>21872.06783392639</v>
       </c>
       <c r="B753">
-        <v>0.3262688336357971</v>
+        <v>0.1020175921202916</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754">
-        <v>42072.91127194137</v>
+        <v>21853.38614824028</v>
       </c>
       <c r="B754">
-        <v>0.3500255559477162</v>
+        <v>0.1027845897916159</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755">
-        <v>44334.59823526115</v>
+        <v>21880.86229016991</v>
       </c>
       <c r="B755">
-        <v>0.3150852895824445</v>
+        <v>0.1016565258025796</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756">
-        <v>43700.79763422401</v>
+        <v>21873.26563301296</v>
       </c>
       <c r="B756">
-        <v>0.3248767249940904</v>
+        <v>0.1019684151281535</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757">
-        <v>46009.63472191484</v>
+        <v>21900.96074309559</v>
       </c>
       <c r="B757">
-        <v>0.2892080475218006</v>
+        <v>0.1008313611546872</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758">
-        <v>41585.6212731058</v>
+        <v>21848.53308644504</v>
       </c>
       <c r="B758">
-        <v>0.3575535837573014</v>
+        <v>0.1029838377159348</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759">
-        <v>42080.33944184131</v>
+        <v>21854.39644494266</v>
       </c>
       <c r="B759">
-        <v>0.3499107999098031</v>
+        <v>0.1027431109212882</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760">
-        <v>43928.5175556087</v>
+        <v>21876.02114918442</v>
       </c>
       <c r="B760">
-        <v>0.321358733849029</v>
+        <v>0.1018552843046125</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761">
-        <v>45333.00664970918</v>
+        <v>21909.01158337612</v>
       </c>
       <c r="B761">
-        <v>0.2996611143946734</v>
+        <v>0.1005008248288373</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762">
-        <v>47095.74007859195</v>
+        <v>21970.7167754525</v>
       </c>
       <c r="B762">
-        <v>0.272429063038756</v>
+        <v>0.09796744858932671</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763">
-        <v>46641.05414424715</v>
+        <v>21949.32142906938</v>
       </c>
       <c r="B763">
-        <v>0.2794533983761409</v>
+        <v>0.09884585866049234</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764">
-        <v>45952.32000385103</v>
+        <v>21909.38373573218</v>
       </c>
       <c r="B764">
-        <v>0.290093489029966</v>
+        <v>0.10048554569422</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765">
-        <v>43115.59197138128</v>
+        <v>21714.00428841616</v>
       </c>
       <c r="B765">
-        <v>0.3339174287120695</v>
+        <v>0.1085070692137706</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766">
-        <v>40640.59202437725</v>
+        <v>21637.08510735763</v>
       </c>
       <c r="B766">
-        <v>0.3721531168531994</v>
+        <v>0.1116650729262468</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767">
-        <v>40898.07777931418</v>
+        <v>21707.63141664405</v>
       </c>
       <c r="B767">
-        <v>0.3681752803936595</v>
+        <v>0.1087687146504289</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768">
-        <v>41406.86758836343</v>
+        <v>21843.22801756401</v>
       </c>
       <c r="B768">
-        <v>0.3603151071068921</v>
+        <v>0.1032016433008449</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769">
-        <v>41262.90179340341</v>
+        <v>21806.27638980288</v>
       </c>
       <c r="B769">
-        <v>0.3625392005844473</v>
+        <v>0.1047187340452573</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770">
-        <v>41717.49537555673</v>
+        <v>21937.85803862591</v>
       </c>
       <c r="B770">
-        <v>0.3555162919742012</v>
+        <v>0.09931650108127565</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771">
-        <v>40526.18403632738</v>
+        <v>21602.61269875545</v>
       </c>
       <c r="B771">
-        <v>0.3739205787706125</v>
+        <v>0.1130803765325195</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772">
-        <v>39779.56436706879</v>
+        <v>21392.4201638319</v>
       </c>
       <c r="B772">
-        <v>0.3854549292534728</v>
+        <v>0.1217100680670445</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773">
-        <v>40467.69833253123</v>
+        <v>21586.147477112</v>
       </c>
       <c r="B773">
-        <v>0.3748241105600862</v>
+        <v>0.1137563747732858</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774">
-        <v>40618.13414122887</v>
+        <v>21627.26483889599</v>
       </c>
       <c r="B774">
-        <v>0.3725000633722936</v>
+        <v>0.1120682551212807</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775">
-        <v>39282.61701326676</v>
+        <v>21275.01803346653</v>
       </c>
       <c r="B775">
-        <v>0.3931321512532286</v>
+        <v>0.1265301449119132</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776">
-        <v>39578.18126853414</v>
+        <v>21353.00291844387</v>
       </c>
       <c r="B776">
-        <v>0.3885660490584594</v>
+        <v>0.1233283875233616</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777">
-        <v>40212.23539490398</v>
+        <v>21515.0140280344</v>
       </c>
       <c r="B777">
-        <v>0.3787706969939795</v>
+        <v>0.1166768387352902</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778">
-        <v>39962.51223898592</v>
+        <v>21453.31250020046</v>
       </c>
       <c r="B778">
-        <v>0.3826286108993353</v>
+        <v>0.1192100645351953</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779">
-        <v>39624.57303965749</v>
+        <v>21369.62979742069</v>
       </c>
       <c r="B779">
-        <v>0.3878493535711991</v>
+        <v>0.1226457522584886</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780">
-        <v>39969.94911075296</v>
+        <v>21455.15406676311</v>
       </c>
       <c r="B780">
-        <v>0.3825137204283378</v>
+        <v>0.119134456943414</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781">
-        <v>39818.71418929758</v>
+        <v>21418.93468090076</v>
       </c>
       <c r="B781">
-        <v>0.3848501129199077</v>
+        <v>0.1206214846709958</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782">
-        <v>39905.43442893686</v>
+        <v>21439.77158733387</v>
       </c>
       <c r="B782">
-        <v>0.3835103924716768</v>
+        <v>0.1197660019816754</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783">
-        <v>40206.02959031119</v>
+        <v>21510.02466746349</v>
       </c>
       <c r="B783">
-        <v>0.3788665689996988</v>
+        <v>0.116881682559535</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784">
-        <v>40050.99158523061</v>
+        <v>21474.96915408153</v>
       </c>
       <c r="B784">
-        <v>0.3812617144296856</v>
+        <v>0.118320926190051</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785">
-        <v>40639.33159095623</v>
+        <v>21608.45196672458</v>
       </c>
       <c r="B785">
-        <v>0.3721725889906704</v>
+        <v>0.1128406388016845</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786">
-        <v>40340.85674034905</v>
+        <v>21534.30144486777</v>
       </c>
       <c r="B786">
-        <v>0.3767836562836622</v>
+        <v>0.1158849720886924</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787">
-        <v>40562.88766323875</v>
+        <v>21594.6181533892</v>
       </c>
       <c r="B787">
-        <v>0.3733535531292865</v>
+        <v>0.1134086016071856</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788">
-        <v>40415.43039849519</v>
+        <v>21551.17145124434</v>
       </c>
       <c r="B788">
-        <v>0.3756315854968039</v>
+        <v>0.1151923549542724</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789">
-        <v>40291.63701751947</v>
+        <v>21511.25391766123</v>
       </c>
       <c r="B789">
-        <v>0.3775440401272185</v>
+        <v>0.1168312143065635</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790">
-        <v>39142.18950417756</v>
+        <v>21114.75137380616</v>
       </c>
       <c r="B790">
-        <v>0.3953015825901746</v>
+        <v>0.1331100733410587</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791">
-        <v>38377.89719322442</v>
+        <v>20829.72757191659</v>
       </c>
       <c r="B791">
-        <v>0.407108953529977</v>
+        <v>0.1448120469206587</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792">
-        <v>38749.70049432039</v>
+        <v>20968.14158372284</v>
       </c>
       <c r="B792">
-        <v>0.4013650523683804</v>
+        <v>0.1391293035902237</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793">
-        <v>38589.45705193906</v>
+        <v>20910.31158999802</v>
       </c>
       <c r="B793">
-        <v>0.4038406153666626</v>
+        <v>0.1415035791917347</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794">
-        <v>39021.27143192916</v>
+        <v>21066.63107485772</v>
       </c>
       <c r="B794">
-        <v>0.3971696172568877</v>
+        <v>0.1350857064748672</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795">
-        <v>39332.31898309665</v>
+        <v>21176.42741892935</v>
       </c>
       <c r="B795">
-        <v>0.3923643172899528</v>
+        <v>0.1305778937625778</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796">
-        <v>39013.97424721323</v>
+        <v>21067.24346853496</v>
       </c>
       <c r="B796">
-        <v>0.3972823497357082</v>
+        <v>0.1350605639619128</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797">
-        <v>39111.91418087088</v>
+        <v>21100.88443363906</v>
       </c>
       <c r="B797">
-        <v>0.3957692988912305</v>
+        <v>0.1336793962059898</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798">
-        <v>37833.66857918059</v>
+        <v>20672.97043944598</v>
       </c>
       <c r="B798">
-        <v>0.4155166125237675</v>
+        <v>0.1512478877536836</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799">
-        <v>37134.27392586027</v>
+        <v>20438.74602843524</v>
       </c>
       <c r="B799">
-        <v>0.4263213949175206</v>
+        <v>0.1608642350593272</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800">
-        <v>36049.42905767715</v>
+        <v>20075.43591578008</v>
       </c>
       <c r="B800">
-        <v>0.4430809064122849</v>
+        <v>0.1757803414031034</v>
       </c>
     </row>
     <row r="801" spans="1:3">
       <c r="A801">
-        <v>35431.19878752982</v>
+        <v>19868.39312497975</v>
       </c>
       <c r="B801">
-        <v>0.4526317994688176</v>
+        <v>0.1842807166409961</v>
       </c>
     </row>
     <row r="802" spans="1:3">
       <c r="A802">
-        <v>35802.37681825912</v>
+        <v>19992.69913048745</v>
       </c>
       <c r="B802">
-        <v>0.4468975579610618</v>
+        <v>0.1791771934173448</v>
       </c>
     </row>
     <row r="803" spans="1:3">
       <c r="A803">
-        <v>35428.86562641655</v>
+        <v>19871.4206657827</v>
       </c>
       <c r="B803">
-        <v>0.4526678439224014</v>
+        <v>0.1841564175394738</v>
       </c>
     </row>
     <row r="804" spans="1:3">
       <c r="A804">
-        <v>36274.27508308684</v>
+        <v>20146.28788204194</v>
       </c>
       <c r="B804">
-        <v>0.439607313405649</v>
+        <v>0.1728714340354995</v>
       </c>
     </row>
     <row r="805" spans="1:3">
       <c r="A805">
-        <v>37001.99742546742</v>
+        <v>20376.52234480978</v>
       </c>
       <c r="B805">
-        <v>0.4283649032511443</v>
+        <v>0.1634188985540365</v>
       </c>
     </row>
     <row r="806" spans="1:3">
       <c r="A806">
-        <v>36258.98273504787</v>
+        <v>20147.84599099756</v>
       </c>
       <c r="B806">
-        <v>0.4398435612695212</v>
+        <v>0.1728074641154018</v>
       </c>
     </row>
     <row r="807" spans="1:3">
       <c r="A807">
-        <v>36638.65701274091</v>
+        <v>20264.7834504366</v>
       </c>
       <c r="B807">
-        <v>0.433978063254197</v>
+        <v>0.168006464859377</v>
       </c>
     </row>
     <row r="808" spans="1:3">
       <c r="A808">
-        <v>36746.76276018553</v>
+        <v>20297.37385262252</v>
       </c>
       <c r="B808">
-        <v>0.4323079631596253</v>
+        <v>0.1666684291486756</v>
       </c>
     </row>
     <row r="809" spans="1:3">
       <c r="A809">
-        <v>36870.84735638672</v>
+        <v>20333.84987704159</v>
       </c>
       <c r="B809">
-        <v>0.4303910096141476</v>
+        <v>0.1651708648357619</v>
       </c>
     </row>
     <row r="810" spans="1:3">
       <c r="A810">
-        <v>36029.37803770112</v>
+        <v>20093.69140259625</v>
       </c>
       <c r="B810">
-        <v>0.4433906698721359</v>
+        <v>0.1750308418069668</v>
       </c>
     </row>
     <row r="811" spans="1:3">
       <c r="A811">
-        <v>35724.02843151497</v>
+        <v>19998.31338733859</v>
       </c>
       <c r="B811">
-        <v>0.4481079436362356</v>
+        <v>0.1789466937716818</v>
       </c>
     </row>
     <row r="812" spans="1:3">
       <c r="A812">
-        <v>35259.25742290424</v>
+        <v>19841.52488592489</v>
       </c>
       <c r="B812">
-        <v>0.4552880808979716</v>
+        <v>0.1853838224920372</v>
       </c>
     </row>
     <row r="813" spans="1:3">
       <c r="A813">
-        <v>34753.36202351259</v>
+        <v>19657.65922324075</v>
       </c>
       <c r="B813">
-        <v>0.4631035391352885</v>
+        <v>0.1929326346005749</v>
       </c>
     </row>
     <row r="814" spans="1:3">
       <c r="A814">
-        <v>32097.43766261148</v>
+        <v>18694.97276679886</v>
       </c>
       <c r="B814">
-        <v>0.5041342857067264</v>
+        <v>0.2324568125956684</v>
       </c>
     </row>
     <row r="815" spans="1:3">
       <c r="A815">
-        <v>31141.48189159738</v>
+        <v>18348.46979884518</v>
       </c>
       <c r="B815">
-        <v>0.5189026200581892</v>
+        <v>0.246682882661978</v>
       </c>
     </row>
     <row r="816" spans="1:3">
       <c r="A816">
-        <v>31165.73096185604</v>
+        <v>18348.46979884518</v>
       </c>
       <c r="B816">
-        <v>0.5185280019135526</v>
+        <v>0.246682882661978</v>
       </c>
       <c r="C816" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
